--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_816.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_816.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32648-d77592-Reviews-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>131</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Vagabond-Inn-Convention-Center-Long-Beach.h40601.Hotel-Information?chkin=6%2F24%2F2018&amp;chkout=6%2F25%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529290639206&amp;cancellable=false&amp;regionId=2058&amp;vip=false&amp;c=aa987c4e-6e6f-463d-8adc-a69f2828811a&amp;mctc=9&amp;exp_dp=83.66&amp;exp_ts=1529290639714&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_816.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_816.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="445">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1247 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r529238481-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32648</t>
+  </si>
+  <si>
+    <t>77592</t>
+  </si>
+  <si>
+    <t>529238481</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Took My Grand-Daughter to the Long Beach Aquarium for her 10th Birthday !!!!!!!!</t>
+  </si>
+  <si>
+    <t>Nice and Friendly Place to stay and best of all--Near Long Beach  Queen Mary and Long Beach Aquarium and Harbor Tours for Whale Watching and Sea Lions,, Dolphins and all kinds of Birds-- Shopping and Restaurants and so much fun  for all the Family---</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r514990081-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>514990081</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointed </t>
+  </si>
+  <si>
+    <t>Free parking for all customers. We were greeted by a polite receptionist. Our room was a good size. We had a large tv in good working condition. There is no refrigerator or microwave in the room. There was a strong odor in the elevator. Our room was a decent size, however, it was dingy with not enough light (one of our lamps was broken). Breakfast was a very poor selection</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r505511551-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>505511551</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Stayed overnight before going on a cruise. Rooms and hotel older not cleanest and parking was horrible not enough spaces for everyone . They asked for car keys to move your vehicle if others had to get in and out.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r478606149-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>478606149</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>If I could give it 0 stars I would!</t>
+  </si>
+  <si>
+    <t>The WORST, DISGUSTING,DIRTY,RUN DOWN rooms I have ever seen! The place had original decorations, carpeting,windows...No upgrades at all. I can't believe they can get away with it! The place smells, just gross!! Parking is horrible to!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r461503782-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>461503782</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Avoid It If You Can!!!</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before getting the boat to Catalina the next day. Our boat was cancelled so we had to stay another night and we refused to stay here again! The room looked like something out of a crime scene - rips in the lamp shades and stains on the bed sheets with the smell of weed everywhere. We felt unsafe! Please do not do it to yourself - pay the extra for somewhere else - you deserve better!</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r461042702-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>461042702</t>
+  </si>
+  <si>
+    <t>02/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flight delay - only available hotel online </t>
+  </si>
+  <si>
+    <t>Avoid like a rash - checked out 20 mins after I checked in. Loosing $168 AUD is worth it - you can't pay me enough to sleep in this hotel. **Room** 1/10. Had a very dated curtains and bedding but the big drawback was the smell...can't explain it but it put me off, maybe I am fussy. Bedsheets were very thin and I didn't touch the blankets. Nothing more to say. **Location** 7/10. Actually the only thing going for this establishment. Was stranded in LA after weather and ended up in along beach in a bizarre way. Was impressed with the suburb - like a clean cut version of LA. The fact that this hotel is located here counts for something**facilities** 0/10. Didn't stay long enough but can comment on that smell that was everywhere. **Service** 4/10. The guy at the front desk did his best under circumstances. It's a budget hotel and the service matched. Overall - 12/40 = 1.5 stars. I was transferred to this hotel by a online hotels site - I didn't choose it. Still claiming a refund for the $168. If you a seasoned traveller used to the heavenly bedding note this is not for you in every way or shape or form...MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Avoid like a rash - checked out 20 mins after I checked in. Loosing $168 AUD is worth it - you can't pay me enough to sleep in this hotel. **Room** 1/10. Had a very dated curtains and bedding but the big drawback was the smell...can't explain it but it put me off, maybe I am fussy. Bedsheets were very thin and I didn't touch the blankets. Nothing more to say. **Location** 7/10. Actually the only thing going for this establishment. Was stranded in LA after weather and ended up in along beach in a bizarre way. Was impressed with the suburb - like a clean cut version of LA. The fact that this hotel is located here counts for something**facilities** 0/10. Didn't stay long enough but can comment on that smell that was everywhere. **Service** 4/10. The guy at the front desk did his best under circumstances. It's a budget hotel and the service matched. Overall - 12/40 = 1.5 stars. I was transferred to this hotel by a online hotels site - I didn't choose it. Still claiming a refund for the $168. If you a seasoned traveller used to the heavenly bedding note this is not for you in every way or shape or form...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r449971651-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>449971651</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Good location (when driving), close to beach</t>
+  </si>
+  <si>
+    <t>Good value for money (the price i paid, i wouldn't pay more, $80). I had a very spacious room. It was clean&amp;i had a good sleep despite my room facing the street. Unfortunately i didnt get to  check out the pool nor breakfast, but i love the location. Good mexican food across the street, 7/11, long beach convention center, the train (metro blue line), starbucks&amp;beach all within walking distance. But the train&amp;convention center are a little walk so i wouldn't call the location convention center to be exact. Check in&amp;check out was both fast&amp;easy.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r438144035-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>438144035</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>greatly satisfied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rooms were specious and clean. Staff were friendly and professional. Amenities were comparable with value. The only recommendation is to upgrade the continental breakfast with a few more choices. Location was great for the venue we were attending. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r435115319-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>435115319</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of the proximity to our daughter's home and we just needed a place to sleep.  First hotel I've stayed in that did not have a coffee maker or a hairdryer in the room.  Coffee was available in the breakfast area until 10 am.  Breakfast was meager.  Beds and towels were clean but carpets and especially draperies were filthy.  Considering the location, it was surprisingly quiet.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r401088172-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>401088172</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>Not bad!</t>
+  </si>
+  <si>
+    <t>We went into this stay with no idea what we were getting into. We have never travelled this far from home and this was the cheapest hotel close to beach. The breakfast is not good, but the rest is great! The pool is perfect for any hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Bojana N, Guest Relations Manager at Vagabond Inn Convention Center Long Beach, responded to this reviewResponded August 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2016</t>
+  </si>
+  <si>
+    <t>We went into this stay with no idea what we were getting into. We have never travelled this far from home and this was the cheapest hotel close to beach. The breakfast is not good, but the rest is great! The pool is perfect for any hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r395510910-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>395510910</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>Great Location. Poor Quality Hotel</t>
+  </si>
+  <si>
+    <t>Price is great. Location is great. Issues: "Breakfast" was coffee and muffins only. Faucets in bathroom and tub did not work. Had to use a plunger a couple of times during the week on all plumbing. Cannot take a bath. Hallway was stifling hot because they were saving energy and did not run a building AC. TVs are on timers and hard to use. Probably the worst Vagabond Inn in the Nation.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Price is great. Location is great. Issues: "Breakfast" was coffee and muffins only. Faucets in bathroom and tub did not work. Had to use a plunger a couple of times during the week on all plumbing. Cannot take a bath. Hallway was stifling hot because they were saving energy and did not run a building AC. TVs are on timers and hard to use. Probably the worst Vagabond Inn in the Nation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r393045007-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>393045007</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst place ever </t>
+  </si>
+  <si>
+    <t>My family and I were in a hurry so we booked this hotel last minute. This was the biggest mistake I have ever made. First, it is located in a very sketchy area where homeless people and "interesting" people were walking around when we arrived at nearly midnight. Parking was in the back which was an even more scary area and the door to enter the hotel wasn't working (front desk came to let us in.) Next, we entered the building. I will say one word. SMELL. The smell is like a mold from wet, rusty pipes mixed with recently cleaned up bodily fluids, along with garbage that hasn't been taken out for weeks. There were some "interesting" inhabitants walking around indicating "suspicious activity" you might find in a cheap and dirty hotel. I'll leave the rest to your understanding. When we got to the room, we had to literally vacate within 10 minutes. The door to the bathroom had loose screws, as in the door potentially could have broken off and fallen on our small kids (or anyone for that matter). We asked management why it was like that and they said "we haven't had time to fix it." The new room was no better. Again, the smell. Enough said. My clothes started to smell like it so much that the next day I had to do laundry to get the smell out. The bathroom entrance had a huge...My family and I were in a hurry so we booked this hotel last minute. This was the biggest mistake I have ever made. First, it is located in a very sketchy area where homeless people and "interesting" people were walking around when we arrived at nearly midnight. Parking was in the back which was an even more scary area and the door to enter the hotel wasn't working (front desk came to let us in.) Next, we entered the building. I will say one word. SMELL. The smell is like a mold from wet, rusty pipes mixed with recently cleaned up bodily fluids, along with garbage that hasn't been taken out for weeks. There were some "interesting" inhabitants walking around indicating "suspicious activity" you might find in a cheap and dirty hotel. I'll leave the rest to your understanding. When we got to the room, we had to literally vacate within 10 minutes. The door to the bathroom had loose screws, as in the door potentially could have broken off and fallen on our small kids (or anyone for that matter). We asked management why it was like that and they said "we haven't had time to fix it." The new room was no better. Again, the smell. Enough said. My clothes started to smell like it so much that the next day I had to do laundry to get the smell out. The bathroom entrance had a huge crack (another safety hazard). The carpets looked like they have never been vacuumed. The microfiber sheet had blonde hair (definitely not ours) on it. The curtains looked as if they were put in front of exhaust pipes along with multiple cigarette burns. The TV was from the 80s. Of course it didn't work either. The breakfast was literally mini muffins, prepackaged pastries, cereal, watered down milk, juice and coffee in a tiny, unpleasant looking room. Needless to say we cancelled our second day and got the heck out of there. Sorry to say but this place should be shut down for sanitary/health reasons. It can't be clean smelling like that. It was a very scary experience and we will never go back. Ever. MoreShow less</t>
+  </si>
+  <si>
+    <t>Bojana N, Guest Relations Manager at Vagabond Inn Convention Center Long Beach, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>My family and I were in a hurry so we booked this hotel last minute. This was the biggest mistake I have ever made. First, it is located in a very sketchy area where homeless people and "interesting" people were walking around when we arrived at nearly midnight. Parking was in the back which was an even more scary area and the door to enter the hotel wasn't working (front desk came to let us in.) Next, we entered the building. I will say one word. SMELL. The smell is like a mold from wet, rusty pipes mixed with recently cleaned up bodily fluids, along with garbage that hasn't been taken out for weeks. There were some "interesting" inhabitants walking around indicating "suspicious activity" you might find in a cheap and dirty hotel. I'll leave the rest to your understanding. When we got to the room, we had to literally vacate within 10 minutes. The door to the bathroom had loose screws, as in the door potentially could have broken off and fallen on our small kids (or anyone for that matter). We asked management why it was like that and they said "we haven't had time to fix it." The new room was no better. Again, the smell. Enough said. My clothes started to smell like it so much that the next day I had to do laundry to get the smell out. The bathroom entrance had a huge...My family and I were in a hurry so we booked this hotel last minute. This was the biggest mistake I have ever made. First, it is located in a very sketchy area where homeless people and "interesting" people were walking around when we arrived at nearly midnight. Parking was in the back which was an even more scary area and the door to enter the hotel wasn't working (front desk came to let us in.) Next, we entered the building. I will say one word. SMELL. The smell is like a mold from wet, rusty pipes mixed with recently cleaned up bodily fluids, along with garbage that hasn't been taken out for weeks. There were some "interesting" inhabitants walking around indicating "suspicious activity" you might find in a cheap and dirty hotel. I'll leave the rest to your understanding. When we got to the room, we had to literally vacate within 10 minutes. The door to the bathroom had loose screws, as in the door potentially could have broken off and fallen on our small kids (or anyone for that matter). We asked management why it was like that and they said "we haven't had time to fix it." The new room was no better. Again, the smell. Enough said. My clothes started to smell like it so much that the next day I had to do laundry to get the smell out. The bathroom entrance had a huge crack (another safety hazard). The carpets looked like they have never been vacuumed. The microfiber sheet had blonde hair (definitely not ours) on it. The curtains looked as if they were put in front of exhaust pipes along with multiple cigarette burns. The TV was from the 80s. Of course it didn't work either. The breakfast was literally mini muffins, prepackaged pastries, cereal, watered down milk, juice and coffee in a tiny, unpleasant looking room. Needless to say we cancelled our second day and got the heck out of there. Sorry to say but this place should be shut down for sanitary/health reasons. It can't be clean smelling like that. It was a very scary experience and we will never go back. Ever. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r319951759-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>319951759</t>
+  </si>
+  <si>
+    <t>10/18/2015</t>
+  </si>
+  <si>
+    <t>Do not stay here...</t>
+  </si>
+  <si>
+    <t>What a sad little place. We waited 10  minutes for a clerk to show up to check us in - the foyer looks like a tired brothel waiting room. The door opened up into a seamy room with torn curtains and beat up accoutrements- and then they had the nerve to offer up their branded water at $1.50 a bottle as if that was some sort of amenity. Room 319 had substandard repairs done to the bathroom and overall telegraphed tackiness. Even the plastic "do not disturb" sign was torn and poorly repaired with scotch tape. Do not stay here.  Ever.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r319414215-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>319414215</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>A ripp of</t>
+  </si>
+  <si>
+    <t>Do not stay there! To expensive, dirty rooms, old and carpetted al around. Bathroom is old and dirty, breakfast not worth going, not that central. Staff is not friendly. Bad experience alroundDO NOT BOOK THERE!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r314684614-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>314684614</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Bed bugs and mice in the room!!</t>
+  </si>
+  <si>
+    <t>We stayed one night in Vagabond Inn. Our experience in a nutshell: Worst hotel I ever stayed. They have bed bugs, they have mice, they don't clean the room (not even the toilet seat) and they don't even accept to refund. Stay healthy, don't book this hotel!
+Short story long:
+First room: We found lot of mouse dirt and asked reception to have the room changed. Guy at reception mentioned their mouse problem is solved since a while, but anyhow, we still found mouse dirt, so the room was never cleaned after their mouse problem or they still have mice.
+Second room: There was mouse dirt as well, but not as much as in the first room, so we decided to stay. When we returned to the room from dinner at around 11pm, we noted liquid urine stains on the toilet seat, what means they didn't clean the room at all (we didn't use the toilet before, of course!). When we asked the reception for a refund, they said we have to call hotels.com, since we booked via this site. I called them five minutes later and the guy from hotels.com clarified with the hotel and Vagabond Inn said they don't refund, we stayed too long in the room. Finally, we got a refund of 4$ from hotels.com, but nothing from Vagabond Inn. Next morning, we experienced bed bug bites. When we searched for traces of them, we found bed...We stayed one night in Vagabond Inn. Our experience in a nutshell: Worst hotel I ever stayed. They have bed bugs, they have mice, they don't clean the room (not even the toilet seat) and they don't even accept to refund. Stay healthy, don't book this hotel!Short story long:First room: We found lot of mouse dirt and asked reception to have the room changed. Guy at reception mentioned their mouse problem is solved since a while, but anyhow, we still found mouse dirt, so the room was never cleaned after their mouse problem or they still have mice.Second room: There was mouse dirt as well, but not as much as in the first room, so we decided to stay. When we returned to the room from dinner at around 11pm, we noted liquid urine stains on the toilet seat, what means they didn't clean the room at all (we didn't use the toilet before, of course!). When we asked the reception for a refund, they said we have to call hotels.com, since we booked via this site. I called them five minutes later and the guy from hotels.com clarified with the hotel and Vagabond Inn said they don't refund, we stayed too long in the room. Finally, we got a refund of 4$ from hotels.com, but nothing from Vagabond Inn. Next morning, we experienced bed bug bites. When we searched for traces of them, we found bed bug dirt on the mattresses!I showed the attached pictures to local pest control and they confirmed it is definitely bed bug dirtStay off!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>We stayed one night in Vagabond Inn. Our experience in a nutshell: Worst hotel I ever stayed. They have bed bugs, they have mice, they don't clean the room (not even the toilet seat) and they don't even accept to refund. Stay healthy, don't book this hotel!
+Short story long:
+First room: We found lot of mouse dirt and asked reception to have the room changed. Guy at reception mentioned their mouse problem is solved since a while, but anyhow, we still found mouse dirt, so the room was never cleaned after their mouse problem or they still have mice.
+Second room: There was mouse dirt as well, but not as much as in the first room, so we decided to stay. When we returned to the room from dinner at around 11pm, we noted liquid urine stains on the toilet seat, what means they didn't clean the room at all (we didn't use the toilet before, of course!). When we asked the reception for a refund, they said we have to call hotels.com, since we booked via this site. I called them five minutes later and the guy from hotels.com clarified with the hotel and Vagabond Inn said they don't refund, we stayed too long in the room. Finally, we got a refund of 4$ from hotels.com, but nothing from Vagabond Inn. Next morning, we experienced bed bug bites. When we searched for traces of them, we found bed...We stayed one night in Vagabond Inn. Our experience in a nutshell: Worst hotel I ever stayed. They have bed bugs, they have mice, they don't clean the room (not even the toilet seat) and they don't even accept to refund. Stay healthy, don't book this hotel!Short story long:First room: We found lot of mouse dirt and asked reception to have the room changed. Guy at reception mentioned their mouse problem is solved since a while, but anyhow, we still found mouse dirt, so the room was never cleaned after their mouse problem or they still have mice.Second room: There was mouse dirt as well, but not as much as in the first room, so we decided to stay. When we returned to the room from dinner at around 11pm, we noted liquid urine stains on the toilet seat, what means they didn't clean the room at all (we didn't use the toilet before, of course!). When we asked the reception for a refund, they said we have to call hotels.com, since we booked via this site. I called them five minutes later and the guy from hotels.com clarified with the hotel and Vagabond Inn said they don't refund, we stayed too long in the room. Finally, we got a refund of 4$ from hotels.com, but nothing from Vagabond Inn. Next morning, we experienced bed bug bites. When we searched for traces of them, we found bed bug dirt on the mattresses!I showed the attached pictures to local pest control and they confirmed it is definitely bed bug dirtStay off!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r292786881-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>292786881</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel based on the reviews I had read. They didn't match what I had hoped for. The hallway was dingy and had a bad odor. The room also had a very bad odor. The bathroom was very small, old, and the tub looked dirty. The curtains were filthy, the blanket on the bed had black stains. I just did not feel comfortable and it just did not feel clean. I would not stay there again</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r285666706-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>285666706</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Budget hotel with very nice staff</t>
+  </si>
+  <si>
+    <t>We stayed at the Long Beach Vagabond Inn over the Fourth of July weekend. We weren't sure what to expect after reading mixed reviews, but I think our experience was what a person might expect from a budget hotel.  The bed was comfortable, the pillows were average. They gave us extra pillows and towels when we requested them. The front desk and other hotel staff were nice and accommodated our few reasonable requests. The pool was clean and  at a nice temperature, and the air conditioning worked nicely.  While asking for extra towels we were able to see into a room that had been recently renovated, and that looked quite nice.One drawback to the hotel is that there is an amount of street noise that gets through the windows.  We were told by a business in the area that it's not as safe after midnight.I think my final review would be that if you want a more luxurious experience, this probably isn't it. If you would like a clean room at a budget price with a nice staff, this is strong option.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Long Beach Vagabond Inn over the Fourth of July weekend. We weren't sure what to expect after reading mixed reviews, but I think our experience was what a person might expect from a budget hotel.  The bed was comfortable, the pillows were average. They gave us extra pillows and towels when we requested them. The front desk and other hotel staff were nice and accommodated our few reasonable requests. The pool was clean and  at a nice temperature, and the air conditioning worked nicely.  While asking for extra towels we were able to see into a room that had been recently renovated, and that looked quite nice.One drawback to the hotel is that there is an amount of street noise that gets through the windows.  We were told by a business in the area that it's not as safe after midnight.I think my final review would be that if you want a more luxurious experience, this probably isn't it. If you would like a clean room at a budget price with a nice staff, this is strong option.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r282654579-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>282654579</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Perfect location</t>
+  </si>
+  <si>
+    <t>Just come back from travelling up pch and our last stop was long beach we were only going to stay a couple of nights but liked it so much we stayed a week , location of vagabonds is perfect five minute walk to beach front and shops and restaurants , we have stayed in vagabonds all through our 17 day holiday and found them to be more than adequate long beach was nice and clean we stayed in room 123  we were happy with our room beds comfortable pillows were a bit hard , room was nice and spacious on ground floor light and airy , you could nit pick and find faults if you really wanted to but you are not staying in a 5 star hotel and they don't advertise themselves as one we were more than happy staying there and look forward to staying there again in the near future , everyone on reception were really nice especially habib and anos who went the extra mile to make sure you enjoyed your stay and were happy  and did everything they could to help you and they were very nice people to talk to , the cleaners were very good and friendly  , breakfast was basic but it usually is if you stay in motels , there are plenty of places to have breakfast out anyway , locally pine avenue  has lots of lovely restaurants especially pier 76...Just come back from travelling up pch and our last stop was long beach we were only going to stay a couple of nights but liked it so much we stayed a week , location of vagabonds is perfect five minute walk to beach front and shops and restaurants , we have stayed in vagabonds all through our 17 day holiday and found them to be more than adequate long beach was nice and clean we stayed in room 123  we were happy with our room beds comfortable pillows were a bit hard , room was nice and spacious on ground floor light and airy , you could nit pick and find faults if you really wanted to but you are not staying in a 5 star hotel and they don't advertise themselves as one we were more than happy staying there and look forward to staying there again in the near future , everyone on reception were really nice especially habib and anos who went the extra mile to make sure you enjoyed your stay and were happy  and did everything they could to help you and they were very nice people to talk to , the cleaners were very good and friendly  , breakfast was basic but it usually is if you stay in motels , there are plenty of places to have breakfast out anyway , locally pine avenue  has lots of lovely restaurants especially pier 76 lovely food and very reasonable , there is a taxi boat in the harbour which takes you over to the queen mary and only charges a dollar , , vagabond does a scheme if you stay 9 nights in any of their motels you get the tenth free , they offer free wifi, free parking , most hotels have valet parking  expensive ,MoreShow less</t>
+  </si>
+  <si>
+    <t>Just come back from travelling up pch and our last stop was long beach we were only going to stay a couple of nights but liked it so much we stayed a week , location of vagabonds is perfect five minute walk to beach front and shops and restaurants , we have stayed in vagabonds all through our 17 day holiday and found them to be more than adequate long beach was nice and clean we stayed in room 123  we were happy with our room beds comfortable pillows were a bit hard , room was nice and spacious on ground floor light and airy , you could nit pick and find faults if you really wanted to but you are not staying in a 5 star hotel and they don't advertise themselves as one we were more than happy staying there and look forward to staying there again in the near future , everyone on reception were really nice especially habib and anos who went the extra mile to make sure you enjoyed your stay and were happy  and did everything they could to help you and they were very nice people to talk to , the cleaners were very good and friendly  , breakfast was basic but it usually is if you stay in motels , there are plenty of places to have breakfast out anyway , locally pine avenue  has lots of lovely restaurants especially pier 76...Just come back from travelling up pch and our last stop was long beach we were only going to stay a couple of nights but liked it so much we stayed a week , location of vagabonds is perfect five minute walk to beach front and shops and restaurants , we have stayed in vagabonds all through our 17 day holiday and found them to be more than adequate long beach was nice and clean we stayed in room 123  we were happy with our room beds comfortable pillows were a bit hard , room was nice and spacious on ground floor light and airy , you could nit pick and find faults if you really wanted to but you are not staying in a 5 star hotel and they don't advertise themselves as one we were more than happy staying there and look forward to staying there again in the near future , everyone on reception were really nice especially habib and anos who went the extra mile to make sure you enjoyed your stay and were happy  and did everything they could to help you and they were very nice people to talk to , the cleaners were very good and friendly  , breakfast was basic but it usually is if you stay in motels , there are plenty of places to have breakfast out anyway , locally pine avenue  has lots of lovely restaurants especially pier 76 lovely food and very reasonable , there is a taxi boat in the harbour which takes you over to the queen mary and only charges a dollar , , vagabond does a scheme if you stay 9 nights in any of their motels you get the tenth free , they offer free wifi, free parking , most hotels have valet parking  expensive ,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r263789644-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>263789644</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t>Room had a bad order bed was hard bathroom was dirty.  Hotel Clerk didn't call to give us our wake up call. Would not go back to hotel again. The price of this hotel was not worth it the bathroom was natsy. This was the worst hotel I have ever stayed at</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r261670273-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>261670273</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>I would say the cleanliness of the room was good.  Pool is nice.  Breakfast was just muffins and cereal.  We only stayed here for about 16 hrs as a stop over.  Right in downtown Long Beach so close to everything.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r260932128-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>260932128</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Ok.. Not great</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I spent 4 nights here in February... 1st room - I was accidentally sent to a dirty room.. 2nd room - right by the elevator and ice machine (no sleep)... 3rd room on 3rd floor and descent... Breakfast - not much selection... Staff - apologetic and accommodating with the room issues.. Location - descent... Close walk to downtown... </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r251284078-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>251284078</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>no hot water, unfriendly front desk employee</t>
+  </si>
+  <si>
+    <t>There is no hot water in this hotel. Lukewarm in the evening, cold in the morning. Upon arrival, the front desk employee would argue with me on every single request : why do you want to see the room beforehand, why do you want a room facing the back (away from the busy street)  ?.... Quiet night, but at 8 am some hammering started in the hotel. Loud radio from neighbours later.This location has a good potential : broad windows, rooms of a decent size. Too bad it is poorly managed.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r249646392-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>249646392</t>
+  </si>
+  <si>
+    <t>01/16/2015</t>
+  </si>
+  <si>
+    <t>Don't. Just Dont!</t>
+  </si>
+  <si>
+    <t>Dirtiest hotel I have ever stayed in.  Sperm stain on the wall above the head board that was so large and obvious you would need to be blind not to see it. An inch of dust behind the bed stand. The fan in the bathroom so caked in dust that it was not able to function and it stunk so bad of mildew I felt like vomiting.   Go stay somewhere where they care. This place should be closed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r243357048-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>243357048</t>
+  </si>
+  <si>
+    <t>12/07/2014</t>
+  </si>
+  <si>
+    <t>Reasonable Rates, a bit tired but clean.</t>
+  </si>
+  <si>
+    <t>I stayed at the Vagabond Inn for three nights while attending a convention this December.  The room was clean, however, a bit "tired".  The curtain was stained from condensation off the windows and the door to the bathroom would not close completely and had appeared to have been punched or kicked sometime in the past.  I was also a bit shocked that for $100 a night the room had no iron and ironing board.  One would expect for a hotel using "convention center" in its name, they would have at least that amenity.Now the positives, as I mentioned in the title, the room was clean and the staff was very helpful and courteous. The "continental breakfast" did include a couple of choices of cereal, muffins, and even fresh fruit which was nice when heading off to the convention for the day.  The pool was also nice as was the short two block distance to the Beach.  It is obvious that the owners are working to slowly renovate the property as the carpet and beds seemed new.  Given a bit more time and some addition love this property will be back to the level I was expecting for $100 and for the Vagabond name.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>I stayed at the Vagabond Inn for three nights while attending a convention this December.  The room was clean, however, a bit "tired".  The curtain was stained from condensation off the windows and the door to the bathroom would not close completely and had appeared to have been punched or kicked sometime in the past.  I was also a bit shocked that for $100 a night the room had no iron and ironing board.  One would expect for a hotel using "convention center" in its name, they would have at least that amenity.Now the positives, as I mentioned in the title, the room was clean and the staff was very helpful and courteous. The "continental breakfast" did include a couple of choices of cereal, muffins, and even fresh fruit which was nice when heading off to the convention for the day.  The pool was also nice as was the short two block distance to the Beach.  It is obvious that the owners are working to slowly renovate the property as the carpet and beds seemed new.  Given a bit more time and some addition love this property will be back to the level I was expecting for $100 and for the Vagabond name.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r237042152-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>237042152</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>Completely Satisfactory</t>
+  </si>
+  <si>
+    <t>Friendly and competent staff and a very good location.  Reasonably priced and clean, quiet and  comfortable accommodations.  This was a last minute accommodation booked on the hotel website.  I received the senior rate and the process was much easier than the booking sites.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r228168830-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>228168830</t>
+  </si>
+  <si>
+    <t>09/10/2014</t>
+  </si>
+  <si>
+    <t>Long beach budget accommodation</t>
+  </si>
+  <si>
+    <t>Reasonable price accommodation and rooms were nice, comfy beds, clean and tidy. Unfortunately shower head was to low on wall for me to stand under which is a pain. I'm 6'2. TV signal is poor, beds linens had holes in, and internet was very poor, making it difficult to book things. Also very limited selection for breakfast.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r223957537-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>223957537</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>Stay here at your own risk!!</t>
+  </si>
+  <si>
+    <t>This was supposed to be a non-smoking room...it was marked as a non-smoking room.  As soon as we entered the hallway I was hit in the face with the smell of smoke.  There were cigarette burns in the blanket...I couldn't use it so I froze to death for the two nights that I had to stay here.
+Gross unknown stains on the curtains.  The bathroom was disgusting...we were afraid to even use it...only number ones please.  No space for toiletries on the sink...
+The bed was itchy!!  
+Somebody kept rattling our doorknob and there were lots of pounding noises throughout the night.  I shot straight up in bed a few times waiting to do battle with someone.  You definitely need to sleep here with one eye open.  I kept thinking that with our luck the door would open and we would have been done for.  
+The continental breakfast was a joke!  Fruit flies were buzzing around the muffins.  The only safe thing to eat were the bananas.  
+We will never ever stay at any Vagabond Inn ever!  This location needs to be torn down and rebuilt...even if they did that I would still be leery about this place.  I still have the smell of cigarette smoke on myself.   I had to stay here because the Comfort Inn was all booked up. 
+This was a cheap motel and I should have known better but I really had no choice.  The management...This was supposed to be a non-smoking room...it was marked as a non-smoking room.  As soon as we entered the hallway I was hit in the face with the smell of smoke.  There were cigarette burns in the blanket...I couldn't use it so I froze to death for the two nights that I had to stay here.Gross unknown stains on the curtains.  The bathroom was disgusting...we were afraid to even use it...only number ones please.  No space for toiletries on the sink...The bed was itchy!!  Somebody kept rattling our doorknob and there were lots of pounding noises throughout the night.  I shot straight up in bed a few times waiting to do battle with someone.  You definitely need to sleep here with one eye open.  I kept thinking that with our luck the door would open and we would have been done for.  The continental breakfast was a joke!  Fruit flies were buzzing around the muffins.  The only safe thing to eat were the bananas.  We will never ever stay at any Vagabond Inn ever!  This location needs to be torn down and rebuilt...even if they did that I would still be leery about this place.  I still have the smell of cigarette smoke on myself.   I had to stay here because the Comfort Inn was all booked up. This was a cheap motel and I should have known better but I really had no choice.  The management was nice....if they weren't this whole experience would have sent me over the edge.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was supposed to be a non-smoking room...it was marked as a non-smoking room.  As soon as we entered the hallway I was hit in the face with the smell of smoke.  There were cigarette burns in the blanket...I couldn't use it so I froze to death for the two nights that I had to stay here.
+Gross unknown stains on the curtains.  The bathroom was disgusting...we were afraid to even use it...only number ones please.  No space for toiletries on the sink...
+The bed was itchy!!  
+Somebody kept rattling our doorknob and there were lots of pounding noises throughout the night.  I shot straight up in bed a few times waiting to do battle with someone.  You definitely need to sleep here with one eye open.  I kept thinking that with our luck the door would open and we would have been done for.  
+The continental breakfast was a joke!  Fruit flies were buzzing around the muffins.  The only safe thing to eat were the bananas.  
+We will never ever stay at any Vagabond Inn ever!  This location needs to be torn down and rebuilt...even if they did that I would still be leery about this place.  I still have the smell of cigarette smoke on myself.   I had to stay here because the Comfort Inn was all booked up. 
+This was a cheap motel and I should have known better but I really had no choice.  The management...This was supposed to be a non-smoking room...it was marked as a non-smoking room.  As soon as we entered the hallway I was hit in the face with the smell of smoke.  There were cigarette burns in the blanket...I couldn't use it so I froze to death for the two nights that I had to stay here.Gross unknown stains on the curtains.  The bathroom was disgusting...we were afraid to even use it...only number ones please.  No space for toiletries on the sink...The bed was itchy!!  Somebody kept rattling our doorknob and there were lots of pounding noises throughout the night.  I shot straight up in bed a few times waiting to do battle with someone.  You definitely need to sleep here with one eye open.  I kept thinking that with our luck the door would open and we would have been done for.  The continental breakfast was a joke!  Fruit flies were buzzing around the muffins.  The only safe thing to eat were the bananas.  We will never ever stay at any Vagabond Inn ever!  This location needs to be torn down and rebuilt...even if they did that I would still be leery about this place.  I still have the smell of cigarette smoke on myself.   I had to stay here because the Comfort Inn was all booked up. This was a cheap motel and I should have known better but I really had no choice.  The management was nice....if they weren't this whole experience would have sent me over the edge.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r193446558-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>193446558</t>
+  </si>
+  <si>
+    <t>02/08/2014</t>
+  </si>
+  <si>
+    <t>Don't Stay Here!!! Filthy and Disgusting</t>
+  </si>
+  <si>
+    <t>Stayed at this property the night of February 6, 2014. This was the most digusting hotel stay I've ever experienced, seriously if you have choose between sleeping in the street and sleeping here, choose the street. Not only was the sink in the bathroom clogged and filled with stinky fetid water, the power outlets in the room (and for the record, there were NONE readily accessible) did NOT WORK. The room, 228, smelled of mildew and old cigarette smoke. The entire second floor of this property stunk of marijuana smoke. The curtains were filthy and looked as though there was dried blood smeared on them. The furniture was definitely not suitable, the nightstand were covered in stickers that had been scrapped off. And to top it all off I kept getting bit by something in this room/bed There is no way that this room was suitable for rental and it definitely was not at all worth the 100 dollars it cost. I am asking that vagabond inn. Give me a refund for the wasted nights stay. There is no way this was worth that amount of money and if you don't believe me about the conditions of this room, I've got plenty of pictures to share...MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Stayed at this property the night of February 6, 2014. This was the most digusting hotel stay I've ever experienced, seriously if you have choose between sleeping in the street and sleeping here, choose the street. Not only was the sink in the bathroom clogged and filled with stinky fetid water, the power outlets in the room (and for the record, there were NONE readily accessible) did NOT WORK. The room, 228, smelled of mildew and old cigarette smoke. The entire second floor of this property stunk of marijuana smoke. The curtains were filthy and looked as though there was dried blood smeared on them. The furniture was definitely not suitable, the nightstand were covered in stickers that had been scrapped off. And to top it all off I kept getting bit by something in this room/bed There is no way that this room was suitable for rental and it definitely was not at all worth the 100 dollars it cost. I am asking that vagabond inn. Give me a refund for the wasted nights stay. There is no way this was worth that amount of money and if you don't believe me about the conditions of this room, I've got plenty of pictures to share...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r193109004-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>193109004</t>
+  </si>
+  <si>
+    <t>02/04/2014</t>
+  </si>
+  <si>
+    <t>Tent it or Tear it Down</t>
+  </si>
+  <si>
+    <t>We stayed here due to its proximity to the Long Beach Marathon.  On the plus side, the bed was comfortable. On the down side, the interior halls and the rooms are very disjointed in terms of decor, like the place has been rehabbed piecemeal by someone with little to no taste whatsoever.    Furthermore, little insects with wings fell on me from above while I was putting on my makeup at the bathroom mirror.  When I brought this to the attention of the front desk, they said it was mosquitoes.  I live in the South, I know from mosquitoes and these were not mosquitoes.  The clerk offered to give me $20 back on my room.  Even if they tent this place, it has seen much better days.  Another concern, the parking lot was totally jammed to accommodate guests.  Had someone wanted to get their car out of the lot in the later evening or if an emergency vehicle needed to get into the lot, it would have been a nightmare to move all the cars out of the way.  Would not stay at this Inn ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>We stayed here due to its proximity to the Long Beach Marathon.  On the plus side, the bed was comfortable. On the down side, the interior halls and the rooms are very disjointed in terms of decor, like the place has been rehabbed piecemeal by someone with little to no taste whatsoever.    Furthermore, little insects with wings fell on me from above while I was putting on my makeup at the bathroom mirror.  When I brought this to the attention of the front desk, they said it was mosquitoes.  I live in the South, I know from mosquitoes and these were not mosquitoes.  The clerk offered to give me $20 back on my room.  Even if they tent this place, it has seen much better days.  Another concern, the parking lot was totally jammed to accommodate guests.  Had someone wanted to get their car out of the lot in the later evening or if an emergency vehicle needed to get into the lot, it would have been a nightmare to move all the cars out of the way.  Would not stay at this Inn ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r190678598-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>190678598</t>
+  </si>
+  <si>
+    <t>01/12/2014</t>
+  </si>
+  <si>
+    <t>Don't think I'll come again...</t>
+  </si>
+  <si>
+    <t>My family was traveling with a friend who was on a budget, and plus, our trip was pretty much an impromptu fishing trip, so we booked two rooms at this motel thinking that it would be decent like another Vagabond in LA which we frequently stay at. Nope, we were wrong. Not only did the motel have a strange smell, the rooms were less than clean and furniture were worn out. We ended up staying out until about 11pm, and when we got back to the motel, I just kept telling myself that for this low price, I shouldn't expect much. Glad I only had to stay here for one night. Also, if you don't come back early enough, you might have to park on the street if both the front and back parking lots are full.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>My family was traveling with a friend who was on a budget, and plus, our trip was pretty much an impromptu fishing trip, so we booked two rooms at this motel thinking that it would be decent like another Vagabond in LA which we frequently stay at. Nope, we were wrong. Not only did the motel have a strange smell, the rooms were less than clean and furniture were worn out. We ended up staying out until about 11pm, and when we got back to the motel, I just kept telling myself that for this low price, I shouldn't expect much. Glad I only had to stay here for one night. Also, if you don't come back early enough, you might have to park on the street if both the front and back parking lots are full.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r180496797-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>180496797</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>A  great  motel for a good price</t>
+  </si>
+  <si>
+    <t>Stayed at the Vagabond for 3 days/nights the last week of Sept.and found a motel that has improved itself and is quite nice for the price.Ample parking and close to Convention Center and all downtown attractions.I have stayed there before and this was a pleasant experience from what I saw then to the way it is now.Well worth the money</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r175570282-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>175570282</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was truelly scared on booking this room due.to all the reviews and was ready to cancel and look for another one. The day came when we had to stay there and we were almost 2hra earlier than expected, at first he said it was to early but was busy trying to find us a room and he did. When we got to.the room i expected a mess dirty, dingy, gross. It was the total opposite the it was clean, no stains, nothing. I would deff. stay there again. It was prob the smoking rooms that were gross!   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r174175668-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>174175668</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>Pretty Much What You'd Expect for the Price</t>
+  </si>
+  <si>
+    <t>The property itself is relatively fine; looks like it was recently painted, but still quite modest.  The room was exceptionally modest but nothing severely problematic.  The sink faucet leaked, the tub had some rust and drained VERY slowly, but for the price, the good location and the free parking, it was pretty much worth it.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r168360711-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>168360711</t>
+  </si>
+  <si>
+    <t>07/20/2013</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>Too many problems to list! Gross bathrooms, tub clogged so bad that we could not take more than one shower at 8:00 pm and the tub was still full in the morning. Staff was not friendly and not helpful. I called to have them fix the tub and was told the maintenance man was gone. The bathroom stunk like sewer. Based on other reviews the problem with the bathtubs is ongoing and there has been no attempt to fix them. Toilet handle was broken and toilet ran all night. Single pane windows rattled all night. Rooms have no extras at all that you would find in any hotel today such as hair drier, coffee pot, microwave (and there is NOT a microwave available for use in the lobby as the ‘guest information’ card indicates.) I would sleep on the beach before staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Too many problems to list! Gross bathrooms, tub clogged so bad that we could not take more than one shower at 8:00 pm and the tub was still full in the morning. Staff was not friendly and not helpful. I called to have them fix the tub and was told the maintenance man was gone. The bathroom stunk like sewer. Based on other reviews the problem with the bathtubs is ongoing and there has been no attempt to fix them. Toilet handle was broken and toilet ran all night. Single pane windows rattled all night. Rooms have no extras at all that you would find in any hotel today such as hair drier, coffee pot, microwave (and there is NOT a microwave available for use in the lobby as the ‘guest information’ card indicates.) I would sleep on the beach before staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r165821378-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>165821378</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>WATER VIEW</t>
+  </si>
+  <si>
+    <t>The hotel was nice. My only compliant was before I booked I asked for a water view,* ocean view *. They said yes on the water view. I booked and when i opened the curtains there was my water view OF THE POOL!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r163836792-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>163836792</t>
+  </si>
+  <si>
+    <t>06/12/2013</t>
+  </si>
+  <si>
+    <t>Welcome to the 70's</t>
+  </si>
+  <si>
+    <t>I hesitate to pan this hotel out-right. It wasn't really dirty but it is so in need of a remodel/refurb that it left an "almost dirty" lingering.
+The exterior looks good, and tho we didn't get to use it, the pool looked inviting. The interiors however appear to date back to the 70's. The drapes match the bedspreads (bedspreads? really?) but the clash with the carpet...which hasn't been steam-cleaned in a while.
+The sheets on the bed were clean but cheap (very low threadcount) and the blankets had holes in them (we took pictures). The bedsets didn't stay in place at all. (we had two beds thankfully, one to sleep in, the other for sex).
+The TV mostly worked, the safe (Oh! the safe). The bathroom was a disaster. The tiles doesn't match (from patches) the ceiling doesn't match, was patched but apparently never finished-sanded and the shelf over the toilet is so uneven, that nothing would stay on it. I'm buying a new toothbrush!
+The safe...yes well. The one in the first room was locked in closed position, the one in the next room was open, but locked. We gave up. The staff was really unhelpful, actually belligerent when we wanted a safe that worked. Wifi worked once we realized Ipad and Iphone were capping the first letter and shouldn't have. Some of the doors need work as they don't close well or they slam. I didn't notice excessive...I hesitate to pan this hotel out-right. It wasn't really dirty but it is so in need of a remodel/refurb that it left an "almost dirty" lingering.The exterior looks good, and tho we didn't get to use it, the pool looked inviting. The interiors however appear to date back to the 70's. The drapes match the bedspreads (bedspreads? really?) but the clash with the carpet...which hasn't been steam-cleaned in a while.The sheets on the bed were clean but cheap (very low threadcount) and the blankets had holes in them (we took pictures). The bedsets didn't stay in place at all. (we had two beds thankfully, one to sleep in, the other for sex).The TV mostly worked, the safe (Oh! the safe). The bathroom was a disaster. The tiles doesn't match (from patches) the ceiling doesn't match, was patched but apparently never finished-sanded and the shelf over the toilet is so uneven, that nothing would stay on it. I'm buying a new toothbrush!The safe...yes well. The one in the first room was locked in closed position, the one in the next room was open, but locked. We gave up. The staff was really unhelpful, actually belligerent when we wanted a safe that worked. Wifi worked once we realized Ipad and Iphone were capping the first letter and shouldn't have. Some of the doors need work as they don't close well or they slam. I didn't notice excessive noise (but then the A/C was running all night)Starting to think this review should be a "Terrible". The did let us keep our bags there after check-out.MoreShow less</t>
+  </si>
+  <si>
+    <t>I hesitate to pan this hotel out-right. It wasn't really dirty but it is so in need of a remodel/refurb that it left an "almost dirty" lingering.
+The exterior looks good, and tho we didn't get to use it, the pool looked inviting. The interiors however appear to date back to the 70's. The drapes match the bedspreads (bedspreads? really?) but the clash with the carpet...which hasn't been steam-cleaned in a while.
+The sheets on the bed were clean but cheap (very low threadcount) and the blankets had holes in them (we took pictures). The bedsets didn't stay in place at all. (we had two beds thankfully, one to sleep in, the other for sex).
+The TV mostly worked, the safe (Oh! the safe). The bathroom was a disaster. The tiles doesn't match (from patches) the ceiling doesn't match, was patched but apparently never finished-sanded and the shelf over the toilet is so uneven, that nothing would stay on it. I'm buying a new toothbrush!
+The safe...yes well. The one in the first room was locked in closed position, the one in the next room was open, but locked. We gave up. The staff was really unhelpful, actually belligerent when we wanted a safe that worked. Wifi worked once we realized Ipad and Iphone were capping the first letter and shouldn't have. Some of the doors need work as they don't close well or they slam. I didn't notice excessive...I hesitate to pan this hotel out-right. It wasn't really dirty but it is so in need of a remodel/refurb that it left an "almost dirty" lingering.The exterior looks good, and tho we didn't get to use it, the pool looked inviting. The interiors however appear to date back to the 70's. The drapes match the bedspreads (bedspreads? really?) but the clash with the carpet...which hasn't been steam-cleaned in a while.The sheets on the bed were clean but cheap (very low threadcount) and the blankets had holes in them (we took pictures). The bedsets didn't stay in place at all. (we had two beds thankfully, one to sleep in, the other for sex).The TV mostly worked, the safe (Oh! the safe). The bathroom was a disaster. The tiles doesn't match (from patches) the ceiling doesn't match, was patched but apparently never finished-sanded and the shelf over the toilet is so uneven, that nothing would stay on it. I'm buying a new toothbrush!The safe...yes well. The one in the first room was locked in closed position, the one in the next room was open, but locked. We gave up. The staff was really unhelpful, actually belligerent when we wanted a safe that worked. Wifi worked once we realized Ipad and Iphone were capping the first letter and shouldn't have. Some of the doors need work as they don't close well or they slam. I didn't notice excessive noise (but then the A/C was running all night)Starting to think this review should be a "Terrible". The did let us keep our bags there after check-out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r162063270-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>162063270</t>
+  </si>
+  <si>
+    <t>05/27/2013</t>
+  </si>
+  <si>
+    <t>Don't even enter this motel!!</t>
+  </si>
+  <si>
+    <t>If you what to wake up in the middle of the night by disturbing neighbors or like to sleep to house music this is the place for you! The service is really bad the neighborhood is very scary and the rooms are not fresh. Me and my friend has visit a lot of different motels around California the last couple of weeks and has always felt safe until this night. After going to bed around 11pm we heard something sounding like a murder in the room over us, never felt soo scared in our whole life. Stay away from this motel!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r147149170-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>147149170</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>WHAT A Mouse House?</t>
+  </si>
+  <si>
+    <t>Thank God I didn't see a mouse ! It wasn't a clean room tho. I found broken plastic on the crazy looking carpet. The bathtub wouldn't stop up so only showers. The bedspread had burn holes in it. I never use them anyway but still unsettling.At least I felt somewhat safe which is important. There actually was a musty smell..Needs a makeover for sure !</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r146008597-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>146008597</t>
+  </si>
+  <si>
+    <t>11/23/2012</t>
+  </si>
+  <si>
+    <t>Mouse house 2</t>
+  </si>
+  <si>
+    <t>Yes I saw a mouse as well. Not scared of them, but it will make the place smell more than it already does. Loved the psychodelic carpet!!! 70's is back in fashion!!! Darn it, should have taken a photo. The continental breakfast was not refilled and we arrived an hour before the 10am finish. All that was left was a half eaten croissant and those soggy pastries wrapped in plastic. Yes we didn't pay a lot, but in comparison it was not up to scratch against the other similarly priced places. Check in and check out was slower than usual as well.There seemed to be plenty of parking and it was close to 1st Avenue which had lots of places to eat.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Yes I saw a mouse as well. Not scared of them, but it will make the place smell more than it already does. Loved the psychodelic carpet!!! 70's is back in fashion!!! Darn it, should have taken a photo. The continental breakfast was not refilled and we arrived an hour before the 10am finish. All that was left was a half eaten croissant and those soggy pastries wrapped in plastic. Yes we didn't pay a lot, but in comparison it was not up to scratch against the other similarly priced places. Check in and check out was slower than usual as well.There seemed to be plenty of parking and it was close to 1st Avenue which had lots of places to eat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r143519067-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>143519067</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>Wonderful!</t>
+  </si>
+  <si>
+    <t>This was a room for the Long Beach Marathon, this hotel is closer then the parking for the race!   The hotel staff are very kind and accommodating  to us racers.    They put the breakfast (which is very basic) out early.   They allowed late check out (almost 2pm)  Will stay here again next year</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r143248967-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>143248967</t>
+  </si>
+  <si>
+    <t>10/19/2012</t>
+  </si>
+  <si>
+    <t>Needs a reno and parking isn't enough.</t>
+  </si>
+  <si>
+    <t>We stayed here recently for the Long Beach Marathon. Great location near the start and finish lines. They allow pets for $10 which was a huge plus for us.  Elevator was convenient and rightfully placed.  The front desk staff were polite and responsive.  We checked out one night early without penalty.  Within walking distance of Roscoes Chicken and Waffles and a Vons.  Otherwise, not a good choice for a hotel. It's in dire need of remodeling, and there is mold and mysterious staining everywhere. There was hair in the bed. The toilet leaked all night. Burning smell when heater used.  The bolt lock for the adjoining room was unlocked and the condition of the door so bad that it could not even be locked! Thank goodness I had my guard dog!  It's in the ghetto and there were security/police on our floor at 1am on walkie talkies.  Poor water pressure and cheaply maintained plumbing. Our sink's knobs both said HOT, lol! No iron in the room. Smell of marijuana. Now the PARKING!! Not enough.  The owner told us to park at Chevron. Chevron owner said we had to come back in an hour and then sign a liability form. Forget that, we waited back at Vagabond for some sucker to leave which happened. In the morning, all cars are blocked in valet style. I feel bad for the staff here. They must deal with unhappy patrons every weekend.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here recently for the Long Beach Marathon. Great location near the start and finish lines. They allow pets for $10 which was a huge plus for us.  Elevator was convenient and rightfully placed.  The front desk staff were polite and responsive.  We checked out one night early without penalty.  Within walking distance of Roscoes Chicken and Waffles and a Vons.  Otherwise, not a good choice for a hotel. It's in dire need of remodeling, and there is mold and mysterious staining everywhere. There was hair in the bed. The toilet leaked all night. Burning smell when heater used.  The bolt lock for the adjoining room was unlocked and the condition of the door so bad that it could not even be locked! Thank goodness I had my guard dog!  It's in the ghetto and there were security/police on our floor at 1am on walkie talkies.  Poor water pressure and cheaply maintained plumbing. Our sink's knobs both said HOT, lol! No iron in the room. Smell of marijuana. Now the PARKING!! Not enough.  The owner told us to park at Chevron. Chevron owner said we had to come back in an hour and then sign a liability form. Forget that, we waited back at Vagabond for some sucker to leave which happened. In the morning, all cars are blocked in valet style. I feel bad for the staff here. They must deal with unhappy patrons every weekend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r142244624-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>142244624</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>Great value for the price</t>
+  </si>
+  <si>
+    <t>Stayed one night before running the Long Beach half-marathon. Well located within walking distance of the expo and the start line. Spacious room and bathroom. Outdated carpeting and decor, but can't expect too much for this price. Complimentary WiFi, continental breakfast and parking. There is a safe in the room. Very slow check-in process.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r136168599-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>136168599</t>
+  </si>
+  <si>
+    <t>08/03/2012</t>
+  </si>
+  <si>
+    <t>Good price and the people at the front desk were friendly.The bathroom was not as nice as I wanted it to be, but for a one night stay it was ok.I don't think the bed was that comfortable.It's a convenient location by the cruise port which is why I chose this place. Not far from downtown. There is a beach nearby. There aren't that many stores nearby though (there's a 7/11).Not bad, I would stay here again.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r133008855-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>133008855</t>
+  </si>
+  <si>
+    <t>06/28/2012</t>
+  </si>
+  <si>
+    <t>Cockroaches!</t>
+  </si>
+  <si>
+    <t>rooms had cockroaches!We changed rooms twice and both rooms had bugs crawling on the floor!Dude at the front desk said that we were lying of course,  even after we told him we had pictures.I started recording him on my phone and when he realized what I was doing, his tone of voice changed real fast, he called us liars and said that we placed the roaches there!! How ridiculous!!!GROSS!! NEVER STAY HERE!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r129836993-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>129836993</t>
+  </si>
+  <si>
+    <t>05/12/2012</t>
+  </si>
+  <si>
+    <t>Good location!</t>
+  </si>
+  <si>
+    <t>The first room we checked into was so moldy and gross that we actually went out to buy our own cleaning products to clean up ourselves. There were hairs and odd stains on the towels so that was pretty unpleasant. We brought this up to the manager working the desk with not very high expectations and were immediately switched to another room. The second room was a little run down but certainly clean and comfortable. Considering that "you get what you pay for," the second room was certainly above average. Breakfast was pretty questionable, but the proximity to the ocean and the Long Beach Convention Center was wonderful. No noise issues, light issues, anything like that. All in all, I wouldn't stay again but it is certainly not a bad hotel, and the staff is more helpful than you expect.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>The first room we checked into was so moldy and gross that we actually went out to buy our own cleaning products to clean up ourselves. There were hairs and odd stains on the towels so that was pretty unpleasant. We brought this up to the manager working the desk with not very high expectations and were immediately switched to another room. The second room was a little run down but certainly clean and comfortable. Considering that "you get what you pay for," the second room was certainly above average. Breakfast was pretty questionable, but the proximity to the ocean and the Long Beach Convention Center was wonderful. No noise issues, light issues, anything like that. All in all, I wouldn't stay again but it is certainly not a bad hotel, and the staff is more helpful than you expect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r122717901-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>122717901</t>
+  </si>
+  <si>
+    <t>01/07/2012</t>
+  </si>
+  <si>
+    <t>place offer good  and safe walking environment near the convention center.</t>
+  </si>
+  <si>
+    <t>this place offer continental breakfast food you can find in a vending machine. drapperies never been clean for decade. you can hear your neighboor above you when they walk during the day and night. one thing i like is they are pet friendly.  a must for pet lover.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r121674768-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>121674768</t>
+  </si>
+  <si>
+    <t>12/12/2011</t>
+  </si>
+  <si>
+    <t>Good for the price and location</t>
+  </si>
+  <si>
+    <t>We stayed here Friday &amp; Saturday Dec 9-11, 2011 for the local Motorcycle show.  Given a Friday &amp; Saturday night's stay totalled $129 inc taxes - people please!  It's a budget hotel, but you cannot beat the location and price.  We were able to walk to the convention center in a leisurely 15 mins...there are also free (yes free) buses available to downtown locations.I've often stayed at the Hyatt right on Ocean Blvd, but that price was some $211 for one night.  Vagabond inn smoking room actually smelt OK, the windows opened and the carpet was clean.  Sure the curtains needed replacing but, once again, it's $60 on a weekend 10 mins from the ocean front.  Breakfast was paltry (coffee was good and we only ate a banana) but hey - better than no coffee at all.Overall, it's BUDGET but you cannot beat the location.  Front desk staff very nice and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>We stayed here Friday &amp; Saturday Dec 9-11, 2011 for the local Motorcycle show.  Given a Friday &amp; Saturday night's stay totalled $129 inc taxes - people please!  It's a budget hotel, but you cannot beat the location and price.  We were able to walk to the convention center in a leisurely 15 mins...there are also free (yes free) buses available to downtown locations.I've often stayed at the Hyatt right on Ocean Blvd, but that price was some $211 for one night.  Vagabond inn smoking room actually smelt OK, the windows opened and the carpet was clean.  Sure the curtains needed replacing but, once again, it's $60 on a weekend 10 mins from the ocean front.  Breakfast was paltry (coffee was good and we only ate a banana) but hey - better than no coffee at all.Overall, it's BUDGET but you cannot beat the location.  Front desk staff very nice and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r117943438-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>117943438</t>
+  </si>
+  <si>
+    <t>09/11/2011</t>
+  </si>
+  <si>
+    <t>Grim</t>
+  </si>
+  <si>
+    <t>Booked in a rush on labour day weekend when availability was awful. We decided in a budget hotel as we'd spent previous night in a luxury hotel in Vegas and needed to reign the finances in a bit! Really wish we hadn't, this was my worst hotel experience ever. Location was ok, didn't feel particularly safe, but this wasn't a big deal. Decor was dated beyond belief but again I can get past this. What we couldn't get past was the disgusting dirtiness if the room. The room we were in was obviously maintained on a day to day basis but it is so deep down dirty that it needs ripping out and starting again. The curtains were plain cream but looked patterned because if the mottled grease all over them, they were completely flight. The 2 armchairs were covered in stains, the bed smelled of sweat and the comforter had old blood stains on it. We did think about leaving but would have had to sleep in the car (which in hindsight would have been better)!! The place was so bad that my husband and I slept in full clothes so that our skin didn't touch the sheets (including hoodies pulled really tight round face)!! My husband couldn't bring himself to use the bathroom and I managed to show but couldn't touch the towels. The next morning we left at 7am to get somewhere clean to wash up and...Booked in a rush on labour day weekend when availability was awful. We decided in a budget hotel as we'd spent previous night in a luxury hotel in Vegas and needed to reign the finances in a bit! Really wish we hadn't, this was my worst hotel experience ever. Location was ok, didn't feel particularly safe, but this wasn't a big deal. Decor was dated beyond belief but again I can get past this. What we couldn't get past was the disgusting dirtiness if the room. The room we were in was obviously maintained on a day to day basis but it is so deep down dirty that it needs ripping out and starting again. The curtains were plain cream but looked patterned because if the mottled grease all over them, they were completely flight. The 2 armchairs were covered in stains, the bed smelled of sweat and the comforter had old blood stains on it. We did think about leaving but would have had to sleep in the car (which in hindsight would have been better)!! The place was so bad that my husband and I slept in full clothes so that our skin didn't touch the sheets (including hoodies pulled really tight round face)!! My husband couldn't bring himself to use the bathroom and I managed to show but couldn't touch the towels. The next morning we left at 7am to get somewhere clean to wash up and eat. We both honestly felt depressed and physically sick the next day. We're not generally budget travellers so not much to compare too, but I'm pretty sure that you can find a similar standard of hotel which doesn't look like the set of a horror movie! I read a review on another website which said that this looks like a place where bad things could happen - totally agree with that - don't stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>Booked in a rush on labour day weekend when availability was awful. We decided in a budget hotel as we'd spent previous night in a luxury hotel in Vegas and needed to reign the finances in a bit! Really wish we hadn't, this was my worst hotel experience ever. Location was ok, didn't feel particularly safe, but this wasn't a big deal. Decor was dated beyond belief but again I can get past this. What we couldn't get past was the disgusting dirtiness if the room. The room we were in was obviously maintained on a day to day basis but it is so deep down dirty that it needs ripping out and starting again. The curtains were plain cream but looked patterned because if the mottled grease all over them, they were completely flight. The 2 armchairs were covered in stains, the bed smelled of sweat and the comforter had old blood stains on it. We did think about leaving but would have had to sleep in the car (which in hindsight would have been better)!! The place was so bad that my husband and I slept in full clothes so that our skin didn't touch the sheets (including hoodies pulled really tight round face)!! My husband couldn't bring himself to use the bathroom and I managed to show but couldn't touch the towels. The next morning we left at 7am to get somewhere clean to wash up and...Booked in a rush on labour day weekend when availability was awful. We decided in a budget hotel as we'd spent previous night in a luxury hotel in Vegas and needed to reign the finances in a bit! Really wish we hadn't, this was my worst hotel experience ever. Location was ok, didn't feel particularly safe, but this wasn't a big deal. Decor was dated beyond belief but again I can get past this. What we couldn't get past was the disgusting dirtiness if the room. The room we were in was obviously maintained on a day to day basis but it is so deep down dirty that it needs ripping out and starting again. The curtains were plain cream but looked patterned because if the mottled grease all over them, they were completely flight. The 2 armchairs were covered in stains, the bed smelled of sweat and the comforter had old blood stains on it. We did think about leaving but would have had to sleep in the car (which in hindsight would have been better)!! The place was so bad that my husband and I slept in full clothes so that our skin didn't touch the sheets (including hoodies pulled really tight round face)!! My husband couldn't bring himself to use the bathroom and I managed to show but couldn't touch the towels. The next morning we left at 7am to get somewhere clean to wash up and eat. We both honestly felt depressed and physically sick the next day. We're not generally budget travellers so not much to compare too, but I'm pretty sure that you can find a similar standard of hotel which doesn't look like the set of a horror movie! I read a review on another website which said that this looks like a place where bad things could happen - totally agree with that - don't stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r115329208-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>115329208</t>
+  </si>
+  <si>
+    <t>07/13/2011</t>
+  </si>
+  <si>
+    <t>Postives and negatives...</t>
+  </si>
+  <si>
+    <t>Checked into this hotel late at 11.30pm just as a place to sleep until morning. What is worth noting is that this hotel is cheap and tax included cost $90 for 3 people sharing two king size beds. Beds were comfortable and very large however there was a lot of noise from outside as the window faced a garage where people seem to race cars up and down the street all night and was also loud club music until I fell asleep at 1am. The bathroom was dated and a little dirty (rust around taps, frayed shower wire etc. everything just shwoing its age) however it came with lotions, a sealed new hydro 5 schick razor, shower gels and toothpaste at no extra charge so this was a bonus.Continental breakfast was included in the price however this consisted only of coffee with no milk, watery juices, small amount of croissants and a small amount of cakes (and this was at 7am!). Also they provide free wi-fi however getting this to load at a pace considered reasonable was almost impossible.For the cost of the place and the convenience of its central location its worth a visit if you plan on using it just to go straight to sleep in but maybe not if you plan on spending a long time sitting in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Checked into this hotel late at 11.30pm just as a place to sleep until morning. What is worth noting is that this hotel is cheap and tax included cost $90 for 3 people sharing two king size beds. Beds were comfortable and very large however there was a lot of noise from outside as the window faced a garage where people seem to race cars up and down the street all night and was also loud club music until I fell asleep at 1am. The bathroom was dated and a little dirty (rust around taps, frayed shower wire etc. everything just shwoing its age) however it came with lotions, a sealed new hydro 5 schick razor, shower gels and toothpaste at no extra charge so this was a bonus.Continental breakfast was included in the price however this consisted only of coffee with no milk, watery juices, small amount of croissants and a small amount of cakes (and this was at 7am!). Also they provide free wi-fi however getting this to load at a pace considered reasonable was almost impossible.For the cost of the place and the convenience of its central location its worth a visit if you plan on using it just to go straight to sleep in but maybe not if you plan on spending a long time sitting in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r114586756-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>114586756</t>
+  </si>
+  <si>
+    <t>06/20/2011</t>
+  </si>
+  <si>
+    <t>Bad place to stay.</t>
+  </si>
+  <si>
+    <t>Do not that room 201. Across the road of this room ther is à club. THE music for this club you can hear it form room 201. The rooms have no refrigerated.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r108929164-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>108929164</t>
+  </si>
+  <si>
+    <t>05/19/2011</t>
+  </si>
+  <si>
+    <t>Reasonable good accommodation, although the rooms were a bit tired and dated.</t>
+  </si>
+  <si>
+    <t>The hotel is situated close to the beach and harbour, ideal for visiting the area. Although the hotel room felt a bit dated, it was clean and functional. We had booked a non-smoking room the booking.com but when we checked in we were only offered a smoking room. Although it didn't affect our overall experience, it would have been better if we had go what we booked. The room also had a dripping bath tap which could become annoying if you were staying there for a longer time. The inclusive breakfast offering was satisfactory, pastries, juice and tea or coffee. it would have been nice to have fresh milk rather than powdered though. Overall good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is situated close to the beach and harbour, ideal for visiting the area. Although the hotel room felt a bit dated, it was clean and functional. We had booked a non-smoking room the booking.com but when we checked in we were only offered a smoking room. Although it didn't affect our overall experience, it would have been better if we had go what we booked. The room also had a dripping bath tap which could become annoying if you were staying there for a longer time. The inclusive breakfast offering was satisfactory, pastries, juice and tea or coffee. it would have been nice to have fresh milk rather than powdered though. Overall good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r96159034-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>96159034</t>
+  </si>
+  <si>
+    <t>02/10/2011</t>
+  </si>
+  <si>
+    <t>Not Good - certainly not great.</t>
+  </si>
+  <si>
+    <t>I have been to other Vagabond Inns and have had great value - not the case here. Old worn, and dirty.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r86754362-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>86754362</t>
+  </si>
+  <si>
+    <t>11/11/2010</t>
+  </si>
+  <si>
+    <t>Would Not Stay Here Again.</t>
+  </si>
+  <si>
+    <t>I stayed one night at the Convention Center Vagabond inn due to a Convention in Long Beach.  I could handle this place for one night.  The motel 6 we stayed at on the previous night blew this place away (and that wasnt all that nice), but it was also 1/2 the price of this place.  Overall, the room was ok.  The bathroom is where this place really gets dinged.  It looks like they have not refurbished the bathroom since the 70s.  Stick on (cracking) vinyl floor tiles, and  mold growing in the bathroom, with old fixtures, and a shower that had "extra" controls that were no longer being used.  Stains in the tub..  IF the managment went thru and refurbed the bathrooms in every room, and cleaned the carpets more often, this would be a nice place.  The neighborhood is "rough" in the area behind the hotel, so I reccomend you park in the "front" of the hotel and not in the back.  In addition, the security at the hotel was a "farce" although outside doors should have required keys to enter, many were left open, or you could pull them open without a key.  I even believe I saw local people "cut" thru the hotel after a night of partying..MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>I stayed one night at the Convention Center Vagabond inn due to a Convention in Long Beach.  I could handle this place for one night.  The motel 6 we stayed at on the previous night blew this place away (and that wasnt all that nice), but it was also 1/2 the price of this place.  Overall, the room was ok.  The bathroom is where this place really gets dinged.  It looks like they have not refurbished the bathroom since the 70s.  Stick on (cracking) vinyl floor tiles, and  mold growing in the bathroom, with old fixtures, and a shower that had "extra" controls that were no longer being used.  Stains in the tub..  IF the managment went thru and refurbed the bathrooms in every room, and cleaned the carpets more often, this would be a nice place.  The neighborhood is "rough" in the area behind the hotel, so I reccomend you park in the "front" of the hotel and not in the back.  In addition, the security at the hotel was a "farce" although outside doors should have required keys to enter, many were left open, or you could pull them open without a key.  I even believe I saw local people "cut" thru the hotel after a night of partying..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r55570541-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>55570541</t>
+  </si>
+  <si>
+    <t>02/09/2010</t>
+  </si>
+  <si>
+    <t>One Night's Stay was more than enough -- Ughhh!</t>
+  </si>
+  <si>
+    <t>We arrived in Long Beach late and basically took the first hotel we saw. And was that a mistake! First, we were hassled by a homeless woman in the lobby asking for $30. and the lobby attendant made no attempt to remove the person. There was no parking in the front of the building but found some out in the back lane. At 1:00am we were very concerned about safety. Then we got to our room. It looked and felt dirty. The bathroom was dirty. The television didn't work. We checked out early the next morning and put this one down to experience. Never again!</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r24352665-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>24352665</t>
+  </si>
+  <si>
+    <t>02/07/2009</t>
+  </si>
+  <si>
+    <t>GOOD VALUE FOR MONEY</t>
+  </si>
+  <si>
+    <t>We stayed for 14 nights and enjoyed our stay. We saw no evidence of mice, disney or otherwise! The staff were very friendly and the manager even let us pick our own room with a refurbed bathroom and on the third floor which meant we had no one walking overhead. Mr Habib instantly offered us a 10th free nights stay even though we booked over the internet. We had a very noisy next door neighbour one night and on remarking on this to reception we were immediately given a discount. The chambermaids were all friendly and nothing was to much trouble for them. I think you get out of a hotel what you put in,be nice to staff and they will be nice to you! If you want the Savoy pay the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>We stayed for 14 nights and enjoyed our stay. We saw no evidence of mice, disney or otherwise! The staff were very friendly and the manager even let us pick our own room with a refurbed bathroom and on the third floor which meant we had no one walking overhead. Mr Habib instantly offered us a 10th free nights stay even though we booked over the internet. We had a very noisy next door neighbour one night and on remarking on this to reception we were immediately given a discount. The chambermaids were all friendly and nothing was to much trouble for them. I think you get out of a hotel what you put in,be nice to staff and they will be nice to you! If you want the Savoy pay the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r23788806-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>23788806</t>
+  </si>
+  <si>
+    <t>01/22/2009</t>
+  </si>
+  <si>
+    <t>Don't waste your money!  You won't want to stay!</t>
+  </si>
+  <si>
+    <t>We were looking to stay in Long Beach for just the night before the Long Beach Marathon, so we'd have an extra hour or so to sleep before heading off to the race in the morning.  The hotel was right next to the starting line, so the location for it was perfect.  
+When we checked in that eveing, around 9pm, we had trouble parking.  It is very limited and completely unmonitored, as many college aged kids were parking in the few spots they had and then walking to local bars/parties, so the car was left in the driveway, blocking other traffic.
+Upon checking in, there was another woman in the (tiny) lobby, a homeless man entered began harassing the two of us for money.  Both of us, being rather petite women, felt quite intimidated by this man being so upfront that he would actually walk into the hotel to ask for money.  We both waited for the front desk attendant to ask the man politely to leave, mentioning how uncomfortable we were.  The attendant said NOTHING, just acted as if he weren't there.  The man at the door became more and more aggressive as we told him we didn't have anything to give him (he wasn't looking for food if you know what I mean), and when we finally told the attendant that we wouldn't leave the lobby until this man was gone, the attendant seemed more frightened of the...We were looking to stay in Long Beach for just the night before the Long Beach Marathon, so we'd have an extra hour or so to sleep before heading off to the race in the morning.  The hotel was right next to the starting line, so the location for it was perfect.  When we checked in that eveing, around 9pm, we had trouble parking.  It is very limited and completely unmonitored, as many college aged kids were parking in the few spots they had and then walking to local bars/parties, so the car was left in the driveway, blocking other traffic.Upon checking in, there was another woman in the (tiny) lobby, a homeless man entered began harassing the two of us for money.  Both of us, being rather petite women, felt quite intimidated by this man being so upfront that he would actually walk into the hotel to ask for money.  We both waited for the front desk attendant to ask the man politely to leave, mentioning how uncomfortable we were.  The attendant said NOTHING, just acted as if he weren't there.  The man at the door became more and more aggressive as we told him we didn't have anything to give him (he wasn't looking for food if you know what I mean), and when we finally told the attendant that we wouldn't leave the lobby until this man was gone, the attendant seemed more frightened of the man than the two of us, and it took him a few minutes to finally convince the homeless man that if he didn't leave, he would call security.So, after being physically intimidated in the lobby, I told the gentleman at the front desk that there was no available parking, and he told me we could park across the street at the gas station, that they had some sort of deal worked out.  We drove to the gas station and the attendant there had no idea what we were talking about and if we parked there, we would be towed (even though we presented a parking pass from the hotel).  In the mean time, our friend from the lobby had wandered over to the gas station, meeting up with some of his buddies, and hovering around the vehicles that were parked there...Long Beach at night is not a friendly place.  Needless to say, we drove home right and woke up the extra hour early in the morning to drive out for the race.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>We were looking to stay in Long Beach for just the night before the Long Beach Marathon, so we'd have an extra hour or so to sleep before heading off to the race in the morning.  The hotel was right next to the starting line, so the location for it was perfect.  
+When we checked in that eveing, around 9pm, we had trouble parking.  It is very limited and completely unmonitored, as many college aged kids were parking in the few spots they had and then walking to local bars/parties, so the car was left in the driveway, blocking other traffic.
+Upon checking in, there was another woman in the (tiny) lobby, a homeless man entered began harassing the two of us for money.  Both of us, being rather petite women, felt quite intimidated by this man being so upfront that he would actually walk into the hotel to ask for money.  We both waited for the front desk attendant to ask the man politely to leave, mentioning how uncomfortable we were.  The attendant said NOTHING, just acted as if he weren't there.  The man at the door became more and more aggressive as we told him we didn't have anything to give him (he wasn't looking for food if you know what I mean), and when we finally told the attendant that we wouldn't leave the lobby until this man was gone, the attendant seemed more frightened of the...We were looking to stay in Long Beach for just the night before the Long Beach Marathon, so we'd have an extra hour or so to sleep before heading off to the race in the morning.  The hotel was right next to the starting line, so the location for it was perfect.  When we checked in that eveing, around 9pm, we had trouble parking.  It is very limited and completely unmonitored, as many college aged kids were parking in the few spots they had and then walking to local bars/parties, so the car was left in the driveway, blocking other traffic.Upon checking in, there was another woman in the (tiny) lobby, a homeless man entered began harassing the two of us for money.  Both of us, being rather petite women, felt quite intimidated by this man being so upfront that he would actually walk into the hotel to ask for money.  We both waited for the front desk attendant to ask the man politely to leave, mentioning how uncomfortable we were.  The attendant said NOTHING, just acted as if he weren't there.  The man at the door became more and more aggressive as we told him we didn't have anything to give him (he wasn't looking for food if you know what I mean), and when we finally told the attendant that we wouldn't leave the lobby until this man was gone, the attendant seemed more frightened of the man than the two of us, and it took him a few minutes to finally convince the homeless man that if he didn't leave, he would call security.So, after being physically intimidated in the lobby, I told the gentleman at the front desk that there was no available parking, and he told me we could park across the street at the gas station, that they had some sort of deal worked out.  We drove to the gas station and the attendant there had no idea what we were talking about and if we parked there, we would be towed (even though we presented a parking pass from the hotel).  In the mean time, our friend from the lobby had wandered over to the gas station, meeting up with some of his buddies, and hovering around the vehicles that were parked there...Long Beach at night is not a friendly place.  Needless to say, we drove home right and woke up the extra hour early in the morning to drive out for the race.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r20652721-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>20652721</t>
+  </si>
+  <si>
+    <t>10/05/2008</t>
+  </si>
+  <si>
+    <t>Mickey Mouse Checked Out</t>
+  </si>
+  <si>
+    <t>I am no stranger to hotels as I travel often for work.  However, my stay at the Vagabond Inn Long Beach was different.  I was having construction work done at home and was displaced and for several weeks, becoming very familiar with the local hotels. 
+My first hotel stay was for about 12 days at the Vagabond Inn.  My stays were coming out of pocket, so the Vagabond was desirable to me based on price along with the fact that it is located about 2 blocks from my office in Downtown Long Beach.  
+I checked in on my lunch hour.  The woman at the desk, Lety, was very nice and very accommodating.  She set me up in a room on the second floor with a queen size bed and lots of space for my yoga mat.  One of my friends came back with me one night and commented that the room was big enough to land a helicopter in it.  Of course, being totally, I was caught flying around my remote control helicopter by a housekeeping lady one day.  Where she seemed puzzled at first, she ended up laughing.  
+The room was decent, of course, it was no Marriott.  
+A few days into my stay, I noticed that double the amount of the nightly stay was being deducted from my account every day.  I confronted the manager, “Habib” and he said that they charge a deposit, which didn’t make any...I am no stranger to hotels as I travel often for work.  However, my stay at the Vagabond Inn Long Beach was different.  I was having construction work done at home and was displaced and for several weeks, becoming very familiar with the local hotels. My first hotel stay was for about 12 days at the Vagabond Inn.  My stays were coming out of pocket, so the Vagabond was desirable to me based on price along with the fact that it is located about 2 blocks from my office in Downtown Long Beach.  I checked in on my lunch hour.  The woman at the desk, Lety, was very nice and very accommodating.  She set me up in a room on the second floor with a queen size bed and lots of space for my yoga mat.  One of my friends came back with me one night and commented that the room was big enough to land a helicopter in it.  Of course, being totally, I was caught flying around my remote control helicopter by a housekeeping lady one day.  Where she seemed puzzled at first, she ended up laughing.  The room was decent, of course, it was no Marriott.  A few days into my stay, I noticed that double the amount of the nightly stay was being deducted from my account every day.  I confronted the manager, “Habib” and he said that they charge a deposit, which didn’t make any sense to me as with larger hotels there is typically one charge made as a deposit.  I opted to start paying cash.  Around my 6th night, I noticed a small sign on the counter in the lobby that stated “10th Night Free.”  I asked the manager about it and he was rather harsh in saying that I did not qualify because I booked my hotel stays online.  Apparently, he didn’t like that I was high maintenance, asking for extra pillows and everything(ha ha). The next day I asked my little friend Lety, and she hooked me up with a card to get my 10th night free.  Booyah, Mr. Habib!  I was set to stay a total of 18 days, however after my brief run in with a large mouse that amazingly enough slid right under the door, I was done!  The only mice I want to see wear clothes, white gloves and I have to pay 50 bucks to get hugs and picture from them (I love you Mickey!)  It was about 11pm when Mickey’s evil step-brother invaded my room, and I ran out of there like the place was on fire.  The guy at the front desk told me that they just had the bottom floor fumigated because they are trying to keep the vending machines safe (er…what about your guests?!)I checked out, not before being declined a refund for that night (because I had used the shower…lol) and made my way over to the brand new Best Western in the arts district of Long Beach where I had a lovely boutique experience (see review).MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>vagabondinnlb, Habib Rahman.Manager,Vagabond inn,Long Beach. at Vagabond Inn Convention Center Long Beach, responded to this reviewResponded October 14, 2008</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2008</t>
+  </si>
+  <si>
+    <t>I am no stranger to hotels as I travel often for work.  However, my stay at the Vagabond Inn Long Beach was different.  I was having construction work done at home and was displaced and for several weeks, becoming very familiar with the local hotels. 
+My first hotel stay was for about 12 days at the Vagabond Inn.  My stays were coming out of pocket, so the Vagabond was desirable to me based on price along with the fact that it is located about 2 blocks from my office in Downtown Long Beach.  
+I checked in on my lunch hour.  The woman at the desk, Lety, was very nice and very accommodating.  She set me up in a room on the second floor with a queen size bed and lots of space for my yoga mat.  One of my friends came back with me one night and commented that the room was big enough to land a helicopter in it.  Of course, being totally, I was caught flying around my remote control helicopter by a housekeeping lady one day.  Where she seemed puzzled at first, she ended up laughing.  
+The room was decent, of course, it was no Marriott.  
+A few days into my stay, I noticed that double the amount of the nightly stay was being deducted from my account every day.  I confronted the manager, “Habib” and he said that they charge a deposit, which didn’t make any...I am no stranger to hotels as I travel often for work.  However, my stay at the Vagabond Inn Long Beach was different.  I was having construction work done at home and was displaced and for several weeks, becoming very familiar with the local hotels. My first hotel stay was for about 12 days at the Vagabond Inn.  My stays were coming out of pocket, so the Vagabond was desirable to me based on price along with the fact that it is located about 2 blocks from my office in Downtown Long Beach.  I checked in on my lunch hour.  The woman at the desk, Lety, was very nice and very accommodating.  She set me up in a room on the second floor with a queen size bed and lots of space for my yoga mat.  One of my friends came back with me one night and commented that the room was big enough to land a helicopter in it.  Of course, being totally, I was caught flying around my remote control helicopter by a housekeeping lady one day.  Where she seemed puzzled at first, she ended up laughing.  The room was decent, of course, it was no Marriott.  A few days into my stay, I noticed that double the amount of the nightly stay was being deducted from my account every day.  I confronted the manager, “Habib” and he said that they charge a deposit, which didn’t make any sense to me as with larger hotels there is typically one charge made as a deposit.  I opted to start paying cash.  Around my 6th night, I noticed a small sign on the counter in the lobby that stated “10th Night Free.”  I asked the manager about it and he was rather harsh in saying that I did not qualify because I booked my hotel stays online.  Apparently, he didn’t like that I was high maintenance, asking for extra pillows and everything(ha ha). The next day I asked my little friend Lety, and she hooked me up with a card to get my 10th night free.  Booyah, Mr. Habib!  I was set to stay a total of 18 days, however after my brief run in with a large mouse that amazingly enough slid right under the door, I was done!  The only mice I want to see wear clothes, white gloves and I have to pay 50 bucks to get hugs and picture from them (I love you Mickey!)  It was about 11pm when Mickey’s evil step-brother invaded my room, and I ran out of there like the place was on fire.  The guy at the front desk told me that they just had the bottom floor fumigated because they are trying to keep the vending machines safe (er…what about your guests?!)I checked out, not before being declined a refund for that night (because I had used the shower…lol) and made my way over to the brand new Best Western in the arts district of Long Beach where I had a lovely boutique experience (see review).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r16771795-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>16771795</t>
+  </si>
+  <si>
+    <t>06/08/2008</t>
+  </si>
+  <si>
+    <t>Over Priced Dump!</t>
+  </si>
+  <si>
+    <t>I had to ask for another room because the door wouldn't lock. Clerk told me to mess with it a little bit and it should work! I asked for another room. Rooms are dirty, smelly, and price was ridiculous! I stayed at the Westin for less than I paid at this hotel! The location is in a bad part of town with a lot of "undiserables" hanging around at all hours. Do yourself a favor and fork out an extra fifty bucks to stay at the Best Western down the street!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>I had to ask for another room because the door wouldn't lock. Clerk told me to mess with it a little bit and it should work! I asked for another room. Rooms are dirty, smelly, and price was ridiculous! I stayed at the Westin for less than I paid at this hotel! The location is in a bad part of town with a lot of "undiserables" hanging around at all hours. Do yourself a favor and fork out an extra fifty bucks to stay at the Best Western down the street!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r13952728-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>13952728</t>
+  </si>
+  <si>
+    <t>02/29/2008</t>
+  </si>
+  <si>
+    <t>No better or worse than last visit</t>
+  </si>
+  <si>
+    <t>I stay there every year to attend a convention. The place is maintained passably well. I left my socks on to protect feet from "gunk"..they were filthy by morning. There is no extra blanket &amp; clerk reluctant to provide one &lt;&lt;"just turn the heater on overnight&gt;&gt;. "Free" wireless was hard to log on to..then the nearby Travelodge kept over riding our installation. Constant H20 drip in shower. Very uninspiring "continental breakfast" content and area where it's served. They pre-charge you for available in room safe which you need to get reversed  on checking out. No free local paper &lt;not everyone needs USA today&gt;.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>I stay there every year to attend a convention. The place is maintained passably well. I left my socks on to protect feet from "gunk"..they were filthy by morning. There is no extra blanket &amp; clerk reluctant to provide one &lt;&lt;"just turn the heater on overnight&gt;&gt;. "Free" wireless was hard to log on to..then the nearby Travelodge kept over riding our installation. Constant H20 drip in shower. Very uninspiring "continental breakfast" content and area where it's served. They pre-charge you for available in room safe which you need to get reversed  on checking out. No free local paper &lt;not everyone needs USA today&gt;.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r8219267-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>8219267</t>
+  </si>
+  <si>
+    <t>07/22/2007</t>
+  </si>
+  <si>
+    <t>Vagabond is an older motel with good service.</t>
+  </si>
+  <si>
+    <t>We booked the Vagabond Long Beach after reading all of the reviews most of them negative.  We were pleasantly surprised.  We booked it because of the proximity to the Pro Beach Volleyball tournament we were attending.  We were able to walk to the venue and not have to pay for parking at the event.The rooms were large and adequate.  It is definitely an older motel in need of remodeling, but it was serviceable and fit our needs just fine.The continental breakfast was store bought pastries, croissants, coffee, tea, juice, bananas and apples.Our reservation was done online and the price was great.  The desk clerks were very helpful with driving directions the two times we needed help and they allowed us to leave our car in the parking lot on our final day after we had checked out in order to walk to our event.Overall, it was nothing outstanding, but it was clean and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>We booked the Vagabond Long Beach after reading all of the reviews most of them negative.  We were pleasantly surprised.  We booked it because of the proximity to the Pro Beach Volleyball tournament we were attending.  We were able to walk to the venue and not have to pay for parking at the event.The rooms were large and adequate.  It is definitely an older motel in need of remodeling, but it was serviceable and fit our needs just fine.The continental breakfast was store bought pastries, croissants, coffee, tea, juice, bananas and apples.Our reservation was done online and the price was great.  The desk clerks were very helpful with driving directions the two times we needed help and they allowed us to leave our car in the parking lot on our final day after we had checked out in order to walk to our event.Overall, it was nothing outstanding, but it was clean and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r1503099-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>1503099</t>
+  </si>
+  <si>
+    <t>11/30/2003</t>
+  </si>
+  <si>
+    <t>Vagabond Inn - Beware</t>
+  </si>
+  <si>
+    <t>I have to admit that the room was fine...although I did not get the Queen size bed they advertised. And, I probably won't stay there again....they pulled a bait and switch on us. I confirmed my arrival and the price online and after staying the one night was informed that there was a mistake on the price and they were not going to honor the confirmed price. It was only a $10 difference but it's the principle. When I complained upon check-out that I would be reporting them to the BBB and their corporate office, they reduced the price by $5. I still intend to report them because they used unfair practices. If I had been informed of the price from the beginning, I would have at least had a choice - as it was, I was committed to staying. I believe once you have confirmed a price it should be honored, no and's or but's about it. Don't offer a 10% Manager special if it's a lie. Let the buyer beware!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have to admit that the room was fine...although I did not get the Queen size bed they advertised. And, I probably won't stay there again....they pulled a bait and switch on us. I confirmed my arrival and the price online and after staying the one night was informed that there was a mistake on the price and they were not going to honor the confirmed price. It was only a $10 difference but it's the principle. When I complained upon check-out that I would be reporting them to the BBB and their corporate office, they reduced the price by $5. I still intend to report them because they used unfair practices. If I had been informed of the price from the beginning, I would have at least had a choice - as it was, I was committed to staying. I believe once you have confirmed a price it should be honored, no and's or but's about it. Don't offer a 10% Manager special if it's a lie. Let the buyer beware!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r1155488-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>1155488</t>
+  </si>
+  <si>
+    <t>07/31/2003</t>
+  </si>
+  <si>
+    <t>not good enough</t>
+  </si>
+  <si>
+    <t>I had stayed at the Reno Vagabond Inn and found it quite satisfactory. Unfortunately the Vagabond in Long Beach has a run-down feel to it. The location is OK, it's a short walk to the Passport Shuttle which provides a free ride to downtown and runs frequently. The rooms are large. My bed was fine. There is a high level of street &amp; neighborhood noise which is especially unpleasant late at night. The swimming pool is miniscule and I never saw anyone using it in the five days I stayed there. There are a few dismal pastries put out as a form of breakfast, and the coffee is always very weak. This last shows the mentality of the operation as it could not cost them more than another $1-2 per day to make full strength coffee.Next time I'll try Travelodge which is in the same neighborhood but looks considerably nicer.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had stayed at the Reno Vagabond Inn and found it quite satisfactory. Unfortunately the Vagabond in Long Beach has a run-down feel to it. The location is OK, it's a short walk to the Passport Shuttle which provides a free ride to downtown and runs frequently. The rooms are large. My bed was fine. There is a high level of street &amp; neighborhood noise which is especially unpleasant late at night. The swimming pool is miniscule and I never saw anyone using it in the five days I stayed there. There are a few dismal pastries put out as a form of breakfast, and the coffee is always very weak. This last shows the mentality of the operation as it could not cost them more than another $1-2 per day to make full strength coffee.Next time I'll try Travelodge which is in the same neighborhood but looks considerably nicer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r1107348-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>1107348</t>
+  </si>
+  <si>
+    <t>06/23/2003</t>
+  </si>
+  <si>
+    <t>Big Disappointment</t>
+  </si>
+  <si>
+    <t>The hotel was a motel. It does not have a restaurant, bar, blow dryers, or coffee makers. It is located on a extremely busy street and right next to a gas station. After a very exhausting day, could not get any sleep for all the noise. Was a complete disappointment. I would not recommend it nor would I ever stay there again.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1889,3971 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>110</v>
+      </c>
+      <c r="X11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>58</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>110</v>
+      </c>
+      <c r="X12" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>125</v>
+      </c>
+      <c r="X13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16" t="s">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>145</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>71</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O19" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" t="s">
+        <v>84</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
+        <v>84</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>84</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>202</v>
+      </c>
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
+      <c r="O26" t="s">
+        <v>71</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>211</v>
+      </c>
+      <c r="O27" t="s">
+        <v>71</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>213</v>
+      </c>
+      <c r="J28" t="s">
+        <v>214</v>
+      </c>
+      <c r="K28" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>219</v>
+      </c>
+      <c r="J29" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s">
+        <v>224</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" t="s">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>231</v>
+      </c>
+      <c r="O30" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>234</v>
+      </c>
+      <c r="J31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" t="s">
+        <v>236</v>
+      </c>
+      <c r="L31" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" t="s">
+        <v>58</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>241</v>
+      </c>
+      <c r="J32" t="s">
+        <v>242</v>
+      </c>
+      <c r="K32" t="s">
+        <v>243</v>
+      </c>
+      <c r="L32" t="s">
+        <v>244</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>245</v>
+      </c>
+      <c r="O32" t="s">
+        <v>224</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>247</v>
+      </c>
+      <c r="J33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" t="s">
+        <v>249</v>
+      </c>
+      <c r="L33" t="s">
+        <v>250</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>256</v>
+      </c>
+      <c r="O34" t="s">
+        <v>224</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>258</v>
+      </c>
+      <c r="J35" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>238</v>
+      </c>
+      <c r="O35" t="s">
+        <v>58</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>264</v>
+      </c>
+      <c r="J36" t="s">
+        <v>265</v>
+      </c>
+      <c r="K36" t="s">
+        <v>266</v>
+      </c>
+      <c r="L36" t="s">
+        <v>267</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>268</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" t="s">
+        <v>271</v>
+      </c>
+      <c r="K37" t="s">
+        <v>272</v>
+      </c>
+      <c r="L37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>268</v>
+      </c>
+      <c r="O37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>276</v>
+      </c>
+      <c r="J38" t="s">
+        <v>277</v>
+      </c>
+      <c r="K38" t="s">
+        <v>278</v>
+      </c>
+      <c r="L38" t="s">
+        <v>279</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>281</v>
+      </c>
+      <c r="J39" t="s">
+        <v>282</v>
+      </c>
+      <c r="K39" t="s">
+        <v>283</v>
+      </c>
+      <c r="L39" t="s">
+        <v>284</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>285</v>
+      </c>
+      <c r="O39" t="s">
+        <v>84</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>286</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>287</v>
+      </c>
+      <c r="J40" t="s">
+        <v>288</v>
+      </c>
+      <c r="K40" t="s">
+        <v>289</v>
+      </c>
+      <c r="L40" t="s">
+        <v>290</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>291</v>
+      </c>
+      <c r="O40" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>294</v>
+      </c>
+      <c r="J41" t="s">
+        <v>295</v>
+      </c>
+      <c r="K41" t="s">
+        <v>296</v>
+      </c>
+      <c r="L41" t="s">
+        <v>297</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>298</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>299</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>300</v>
+      </c>
+      <c r="J42" t="s">
+        <v>301</v>
+      </c>
+      <c r="K42" t="s">
+        <v>302</v>
+      </c>
+      <c r="L42" t="s">
+        <v>303</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>298</v>
+      </c>
+      <c r="O42" t="s">
+        <v>78</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>305</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>306</v>
+      </c>
+      <c r="J43" t="s">
+        <v>307</v>
+      </c>
+      <c r="K43" t="s">
+        <v>308</v>
+      </c>
+      <c r="L43" t="s">
+        <v>309</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>298</v>
+      </c>
+      <c r="O43" t="s">
+        <v>224</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>310</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>311</v>
+      </c>
+      <c r="J44" t="s">
+        <v>312</v>
+      </c>
+      <c r="K44" t="s">
+        <v>174</v>
+      </c>
+      <c r="L44" t="s">
+        <v>313</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>314</v>
+      </c>
+      <c r="O44" t="s">
+        <v>71</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>315</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>316</v>
+      </c>
+      <c r="J45" t="s">
+        <v>317</v>
+      </c>
+      <c r="K45" t="s">
+        <v>318</v>
+      </c>
+      <c r="L45" t="s">
+        <v>319</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>320</v>
+      </c>
+      <c r="O45" t="s">
+        <v>71</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>321</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>322</v>
+      </c>
+      <c r="J46" t="s">
+        <v>323</v>
+      </c>
+      <c r="K46" t="s">
+        <v>324</v>
+      </c>
+      <c r="L46" t="s">
+        <v>325</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>326</v>
+      </c>
+      <c r="O46" t="s">
+        <v>71</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>329</v>
+      </c>
+      <c r="J47" t="s">
+        <v>330</v>
+      </c>
+      <c r="K47" t="s">
+        <v>331</v>
+      </c>
+      <c r="L47" t="s">
+        <v>332</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>333</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>334</v>
+      </c>
+      <c r="J48" t="s">
+        <v>335</v>
+      </c>
+      <c r="K48" t="s">
+        <v>336</v>
+      </c>
+      <c r="L48" t="s">
+        <v>337</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>338</v>
+      </c>
+      <c r="O48" t="s">
+        <v>78</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>341</v>
+      </c>
+      <c r="J49" t="s">
+        <v>342</v>
+      </c>
+      <c r="K49" t="s">
+        <v>343</v>
+      </c>
+      <c r="L49" t="s">
+        <v>344</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>345</v>
+      </c>
+      <c r="O49" t="s">
+        <v>78</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>347</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>348</v>
+      </c>
+      <c r="J50" t="s">
+        <v>349</v>
+      </c>
+      <c r="K50" t="s">
+        <v>350</v>
+      </c>
+      <c r="L50" t="s">
+        <v>351</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>352</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>354</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>355</v>
+      </c>
+      <c r="J51" t="s">
+        <v>356</v>
+      </c>
+      <c r="K51" t="s">
+        <v>357</v>
+      </c>
+      <c r="L51" t="s">
+        <v>358</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>359</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>360</v>
+      </c>
+      <c r="J52" t="s">
+        <v>361</v>
+      </c>
+      <c r="K52" t="s">
+        <v>362</v>
+      </c>
+      <c r="L52" t="s">
+        <v>363</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>365</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>366</v>
+      </c>
+      <c r="J53" t="s">
+        <v>367</v>
+      </c>
+      <c r="K53" t="s">
+        <v>368</v>
+      </c>
+      <c r="L53" t="s">
+        <v>369</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
+        <v>370</v>
+      </c>
+      <c r="O53" t="s">
+        <v>84</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>371</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>372</v>
+      </c>
+      <c r="J54" t="s">
+        <v>373</v>
+      </c>
+      <c r="K54" t="s">
+        <v>374</v>
+      </c>
+      <c r="L54" t="s">
+        <v>375</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>376</v>
+      </c>
+      <c r="O54" t="s">
+        <v>84</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>378</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>379</v>
+      </c>
+      <c r="J55" t="s">
+        <v>380</v>
+      </c>
+      <c r="K55" t="s">
+        <v>381</v>
+      </c>
+      <c r="L55" t="s">
+        <v>382</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>383</v>
+      </c>
+      <c r="O55" t="s">
+        <v>78</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>384</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>385</v>
+      </c>
+      <c r="J56" t="s">
+        <v>386</v>
+      </c>
+      <c r="K56" t="s">
+        <v>387</v>
+      </c>
+      <c r="L56" t="s">
+        <v>388</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>389</v>
+      </c>
+      <c r="O56" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>391</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>392</v>
+      </c>
+      <c r="J57" t="s">
+        <v>393</v>
+      </c>
+      <c r="K57" t="s">
+        <v>394</v>
+      </c>
+      <c r="L57" t="s">
+        <v>395</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>396</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>398</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>399</v>
+      </c>
+      <c r="J58" t="s">
+        <v>400</v>
+      </c>
+      <c r="K58" t="s">
+        <v>401</v>
+      </c>
+      <c r="L58" t="s">
+        <v>402</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>403</v>
+      </c>
+      <c r="O58" t="s">
+        <v>224</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>404</v>
+      </c>
+      <c r="X58" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>407</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>408</v>
+      </c>
+      <c r="J59" t="s">
+        <v>409</v>
+      </c>
+      <c r="K59" t="s">
+        <v>410</v>
+      </c>
+      <c r="L59" t="s">
+        <v>411</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>412</v>
+      </c>
+      <c r="O59" t="s">
+        <v>84</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>404</v>
+      </c>
+      <c r="X59" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>414</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>415</v>
+      </c>
+      <c r="J60" t="s">
+        <v>416</v>
+      </c>
+      <c r="K60" t="s">
+        <v>417</v>
+      </c>
+      <c r="L60" t="s">
+        <v>418</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>419</v>
+      </c>
+      <c r="O60" t="s">
+        <v>84</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>404</v>
+      </c>
+      <c r="X60" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>421</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>422</v>
+      </c>
+      <c r="J61" t="s">
+        <v>423</v>
+      </c>
+      <c r="K61" t="s">
+        <v>424</v>
+      </c>
+      <c r="L61" t="s">
+        <v>425</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>426</v>
+      </c>
+      <c r="O61" t="s">
+        <v>78</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>404</v>
+      </c>
+      <c r="X61" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>428</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>429</v>
+      </c>
+      <c r="J62" t="s">
+        <v>430</v>
+      </c>
+      <c r="K62" t="s">
+        <v>431</v>
+      </c>
+      <c r="L62" t="s">
+        <v>432</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>434</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>435</v>
+      </c>
+      <c r="J63" t="s">
+        <v>436</v>
+      </c>
+      <c r="K63" t="s">
+        <v>437</v>
+      </c>
+      <c r="L63" t="s">
+        <v>438</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>2</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5725</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>440</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>441</v>
+      </c>
+      <c r="J64" t="s">
+        <v>442</v>
+      </c>
+      <c r="K64" t="s">
+        <v>443</v>
+      </c>
+      <c r="L64" t="s">
+        <v>444</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>444</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_816.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_816.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="508">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Kathy P</t>
+  </si>
+  <si>
     <t>07/13/2018</t>
   </si>
   <si>
@@ -174,6 +177,9 @@
     <t>Nice and Friendly Place to stay and best of all--Near Long Beach  Queen Mary and Long Beach Aquarium and Harbor Tours for Whale Watching and Sea Lions,, Dolphins and all kinds of Birds-- Shopping and Restaurants and so much fun  for all the Family---</t>
   </si>
   <si>
+    <t>Colette C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r514990081-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Lorraine B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r505511551-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Cathie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r478606149-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Conor B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r461503782-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Baffel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r461042702-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>Avoid like a rash - checked out 20 mins after I checked in. Loosing $168 AUD is worth it - you can't pay me enough to sleep in this hotel. **Room** 1/10. Had a very dated curtains and bedding but the big drawback was the smell...can't explain it but it put me off, maybe I am fussy. Bedsheets were very thin and I didn't touch the blankets. Nothing more to say. **Location** 7/10. Actually the only thing going for this establishment. Was stranded in LA after weather and ended up in along beach in a bizarre way. Was impressed with the suburb - like a clean cut version of LA. The fact that this hotel is located here counts for something**facilities** 0/10. Didn't stay long enough but can comment on that smell that was everywhere. **Service** 4/10. The guy at the front desk did his best under circumstances. It's a budget hotel and the service matched. Overall - 12/40 = 1.5 stars. I was transferred to this hotel by a online hotels site - I didn't choose it. Still claiming a refund for the $168. If you a seasoned traveller used to the heavenly bedding note this is not for you in every way or shape or form...More</t>
   </si>
   <si>
+    <t>Anita M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r449971651-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>ficmike5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r438144035-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>Linda W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r435115319-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -330,6 +357,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>jossalinbryce</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r401088172-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -357,6 +387,9 @@
     <t>We went into this stay with no idea what we were getting into. We have never travelled this far from home and this was the cheapest hotel close to beach. The breakfast is not good, but the rest is great! The pool is perfect for any hotel.More</t>
   </si>
   <si>
+    <t>DonSuttonLBCA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r395510910-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -378,6 +411,9 @@
     <t>Price is great. Location is great. Issues: "Breakfast" was coffee and muffins only. Faucets in bathroom and tub did not work. Had to use a plunger a couple of times during the week on all plumbing. Cannot take a bath. Hallway was stifling hot because they were saving energy and did not run a building AC. TVs are on timers and hard to use. Probably the worst Vagabond Inn in the Nation.More</t>
   </si>
   <si>
+    <t>Sanaali83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r393045007-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -402,6 +438,9 @@
     <t>My family and I were in a hurry so we booked this hotel last minute. This was the biggest mistake I have ever made. First, it is located in a very sketchy area where homeless people and "interesting" people were walking around when we arrived at nearly midnight. Parking was in the back which was an even more scary area and the door to enter the hotel wasn't working (front desk came to let us in.) Next, we entered the building. I will say one word. SMELL. The smell is like a mold from wet, rusty pipes mixed with recently cleaned up bodily fluids, along with garbage that hasn't been taken out for weeks. There were some "interesting" inhabitants walking around indicating "suspicious activity" you might find in a cheap and dirty hotel. I'll leave the rest to your understanding. When we got to the room, we had to literally vacate within 10 minutes. The door to the bathroom had loose screws, as in the door potentially could have broken off and fallen on our small kids (or anyone for that matter). We asked management why it was like that and they said "we haven't had time to fix it." The new room was no better. Again, the smell. Enough said. My clothes started to smell like it so much that the next day I had to do laundry to get the smell out. The bathroom entrance had a huge...My family and I were in a hurry so we booked this hotel last minute. This was the biggest mistake I have ever made. First, it is located in a very sketchy area where homeless people and "interesting" people were walking around when we arrived at nearly midnight. Parking was in the back which was an even more scary area and the door to enter the hotel wasn't working (front desk came to let us in.) Next, we entered the building. I will say one word. SMELL. The smell is like a mold from wet, rusty pipes mixed with recently cleaned up bodily fluids, along with garbage that hasn't been taken out for weeks. There were some "interesting" inhabitants walking around indicating "suspicious activity" you might find in a cheap and dirty hotel. I'll leave the rest to your understanding. When we got to the room, we had to literally vacate within 10 minutes. The door to the bathroom had loose screws, as in the door potentially could have broken off and fallen on our small kids (or anyone for that matter). We asked management why it was like that and they said "we haven't had time to fix it." The new room was no better. Again, the smell. Enough said. My clothes started to smell like it so much that the next day I had to do laundry to get the smell out. The bathroom entrance had a huge crack (another safety hazard). The carpets looked like they have never been vacuumed. The microfiber sheet had blonde hair (definitely not ours) on it. The curtains looked as if they were put in front of exhaust pipes along with multiple cigarette burns. The TV was from the 80s. Of course it didn't work either. The breakfast was literally mini muffins, prepackaged pastries, cereal, watered down milk, juice and coffee in a tiny, unpleasant looking room. Needless to say we cancelled our second day and got the heck out of there. Sorry to say but this place should be shut down for sanitary/health reasons. It can't be clean smelling like that. It was a very scary experience and we will never go back. Ever. More</t>
   </si>
   <si>
+    <t>1SFOSO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r319951759-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -420,6 +459,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>dietwee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r319414215-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -436,6 +478,9 @@
   </si>
   <si>
     <t>June 2015</t>
+  </si>
+  <si>
+    <t>Michael G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r314684614-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
@@ -465,6 +510,9 @@
 Second room: There was mouse dirt as well, but not as much as in the first room, so we decided to stay. When we returned to the room from dinner at around 11pm, we noted liquid urine stains on the toilet seat, what means they didn't clean the room at all (we didn't use the toilet before, of course!). When we asked the reception for a refund, they said we have to call hotels.com, since we booked via this site. I called them five minutes later and the guy from hotels.com clarified with the hotel and Vagabond Inn said they don't refund, we stayed too long in the room. Finally, we got a refund of 4$ from hotels.com, but nothing from Vagabond Inn. Next morning, we experienced bed bug bites. When we searched for traces of them, we found bed...We stayed one night in Vagabond Inn. Our experience in a nutshell: Worst hotel I ever stayed. They have bed bugs, they have mice, they don't clean the room (not even the toilet seat) and they don't even accept to refund. Stay healthy, don't book this hotel!Short story long:First room: We found lot of mouse dirt and asked reception to have the room changed. Guy at reception mentioned their mouse problem is solved since a while, but anyhow, we still found mouse dirt, so the room was never cleaned after their mouse problem or they still have mice.Second room: There was mouse dirt as well, but not as much as in the first room, so we decided to stay. When we returned to the room from dinner at around 11pm, we noted liquid urine stains on the toilet seat, what means they didn't clean the room at all (we didn't use the toilet before, of course!). When we asked the reception for a refund, they said we have to call hotels.com, since we booked via this site. I called them five minutes later and the guy from hotels.com clarified with the hotel and Vagabond Inn said they don't refund, we stayed too long in the room. Finally, we got a refund of 4$ from hotels.com, but nothing from Vagabond Inn. Next morning, we experienced bed bug bites. When we searched for traces of them, we found bed bug dirt on the mattresses!I showed the attached pictures to local pest control and they confirmed it is definitely bed bug dirtStay off!More</t>
   </si>
   <si>
+    <t>Lisa T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r292786881-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -483,6 +531,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Jeffrey R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r285666706-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -501,6 +552,9 @@
     <t>We stayed at the Long Beach Vagabond Inn over the Fourth of July weekend. We weren't sure what to expect after reading mixed reviews, but I think our experience was what a person might expect from a budget hotel.  The bed was comfortable, the pillows were average. They gave us extra pillows and towels when we requested them. The front desk and other hotel staff were nice and accommodated our few reasonable requests. The pool was clean and  at a nice temperature, and the air conditioning worked nicely.  While asking for extra towels we were able to see into a room that had been recently renovated, and that looked quite nice.One drawback to the hotel is that there is an amount of street noise that gets through the windows.  We were told by a business in the area that it's not as safe after midnight.I think my final review would be that if you want a more luxurious experience, this probably isn't it. If you would like a clean room at a budget price with a nice staff, this is strong option.More</t>
   </si>
   <si>
+    <t>kim j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r282654579-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -519,6 +573,9 @@
     <t>Just come back from travelling up pch and our last stop was long beach we were only going to stay a couple of nights but liked it so much we stayed a week , location of vagabonds is perfect five minute walk to beach front and shops and restaurants , we have stayed in vagabonds all through our 17 day holiday and found them to be more than adequate long beach was nice and clean we stayed in room 123  we were happy with our room beds comfortable pillows were a bit hard , room was nice and spacious on ground floor light and airy , you could nit pick and find faults if you really wanted to but you are not staying in a 5 star hotel and they don't advertise themselves as one we were more than happy staying there and look forward to staying there again in the near future , everyone on reception were really nice especially habib and anos who went the extra mile to make sure you enjoyed your stay and were happy  and did everything they could to help you and they were very nice people to talk to , the cleaners were very good and friendly  , breakfast was basic but it usually is if you stay in motels , there are plenty of places to have breakfast out anyway , locally pine avenue  has lots of lovely restaurants especially pier 76...Just come back from travelling up pch and our last stop was long beach we were only going to stay a couple of nights but liked it so much we stayed a week , location of vagabonds is perfect five minute walk to beach front and shops and restaurants , we have stayed in vagabonds all through our 17 day holiday and found them to be more than adequate long beach was nice and clean we stayed in room 123  we were happy with our room beds comfortable pillows were a bit hard , room was nice and spacious on ground floor light and airy , you could nit pick and find faults if you really wanted to but you are not staying in a 5 star hotel and they don't advertise themselves as one we were more than happy staying there and look forward to staying there again in the near future , everyone on reception were really nice especially habib and anos who went the extra mile to make sure you enjoyed your stay and were happy  and did everything they could to help you and they were very nice people to talk to , the cleaners were very good and friendly  , breakfast was basic but it usually is if you stay in motels , there are plenty of places to have breakfast out anyway , locally pine avenue  has lots of lovely restaurants especially pier 76 lovely food and very reasonable , there is a taxi boat in the harbour which takes you over to the queen mary and only charges a dollar , , vagabond does a scheme if you stay 9 nights in any of their motels you get the tenth free , they offer free wifi, free parking , most hotels have valet parking  expensive ,More</t>
   </si>
   <si>
+    <t>MACLomaLinda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r263789644-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -537,6 +594,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Vicki R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r261670273-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -555,6 +615,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>Caltp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r260932128-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -570,6 +633,9 @@
     <t xml:space="preserve">I spent 4 nights here in February... 1st room - I was accidentally sent to a dirty room.. 2nd room - right by the elevator and ice machine (no sleep)... 3rd room on 3rd floor and descent... Breakfast - not much selection... Staff - apologetic and accommodating with the room issues.. Location - descent... Close walk to downtown... </t>
   </si>
   <si>
+    <t>arciboldi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r251284078-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -588,6 +654,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Matthew P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r249646392-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -603,6 +672,9 @@
     <t>Dirtiest hotel I have ever stayed in.  Sperm stain on the wall above the head board that was so large and obvious you would need to be blind not to see it. An inch of dust behind the bed stand. The fan in the bathroom so caked in dust that it was not able to function and it stunk so bad of mildew I felt like vomiting.   Go stay somewhere where they care. This place should be closed.</t>
   </si>
   <si>
+    <t>Richard J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r243357048-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -624,6 +696,9 @@
     <t>I stayed at the Vagabond Inn for three nights while attending a convention this December.  The room was clean, however, a bit "tired".  The curtain was stained from condensation off the windows and the door to the bathroom would not close completely and had appeared to have been punched or kicked sometime in the past.  I was also a bit shocked that for $100 a night the room had no iron and ironing board.  One would expect for a hotel using "convention center" in its name, they would have at least that amenity.Now the positives, as I mentioned in the title, the room was clean and the staff was very helpful and courteous. The "continental breakfast" did include a couple of choices of cereal, muffins, and even fresh fruit which was nice when heading off to the convention for the day.  The pool was also nice as was the short two block distance to the Beach.  It is obvious that the owners are working to slowly renovate the property as the carpet and beds seemed new.  Given a bit more time and some addition love this property will be back to the level I was expecting for $100 and for the Vagabond name.More</t>
   </si>
   <si>
+    <t>Paul T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r237042152-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -642,6 +717,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Matt T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r228168830-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -658,6 +736,9 @@
   </si>
   <si>
     <t>September 2014</t>
+  </si>
+  <si>
+    <t>HystericHenson</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r223957537-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
@@ -690,6 +771,9 @@
 This was a cheap motel and I should have known better but I really had no choice.  The management...This was supposed to be a non-smoking room...it was marked as a non-smoking room.  As soon as we entered the hallway I was hit in the face with the smell of smoke.  There were cigarette burns in the blanket...I couldn't use it so I froze to death for the two nights that I had to stay here.Gross unknown stains on the curtains.  The bathroom was disgusting...we were afraid to even use it...only number ones please.  No space for toiletries on the sink...The bed was itchy!!  Somebody kept rattling our doorknob and there were lots of pounding noises throughout the night.  I shot straight up in bed a few times waiting to do battle with someone.  You definitely need to sleep here with one eye open.  I kept thinking that with our luck the door would open and we would have been done for.  The continental breakfast was a joke!  Fruit flies were buzzing around the muffins.  The only safe thing to eat were the bananas.  We will never ever stay at any Vagabond Inn ever!  This location needs to be torn down and rebuilt...even if they did that I would still be leery about this place.  I still have the smell of cigarette smoke on myself.   I had to stay here because the Comfort Inn was all booked up. This was a cheap motel and I should have known better but I really had no choice.  The management was nice....if they weren't this whole experience would have sent me over the edge.More</t>
   </si>
   <si>
+    <t>Sean M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r193446558-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -714,6 +798,9 @@
     <t>Stayed at this property the night of February 6, 2014. This was the most digusting hotel stay I've ever experienced, seriously if you have choose between sleeping in the street and sleeping here, choose the street. Not only was the sink in the bathroom clogged and filled with stinky fetid water, the power outlets in the room (and for the record, there were NONE readily accessible) did NOT WORK. The room, 228, smelled of mildew and old cigarette smoke. The entire second floor of this property stunk of marijuana smoke. The curtains were filthy and looked as though there was dried blood smeared on them. The furniture was definitely not suitable, the nightstand were covered in stickers that had been scrapped off. And to top it all off I kept getting bit by something in this room/bed There is no way that this room was suitable for rental and it definitely was not at all worth the 100 dollars it cost. I am asking that vagabond inn. Give me a refund for the wasted nights stay. There is no way this was worth that amount of money and if you don't believe me about the conditions of this room, I've got plenty of pictures to share...More</t>
   </si>
   <si>
+    <t>Year_of_Tiger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r193109004-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -735,6 +822,9 @@
     <t>We stayed here due to its proximity to the Long Beach Marathon.  On the plus side, the bed was comfortable. On the down side, the interior halls and the rooms are very disjointed in terms of decor, like the place has been rehabbed piecemeal by someone with little to no taste whatsoever.    Furthermore, little insects with wings fell on me from above while I was putting on my makeup at the bathroom mirror.  When I brought this to the attention of the front desk, they said it was mosquitoes.  I live in the South, I know from mosquitoes and these were not mosquitoes.  The clerk offered to give me $20 back on my room.  Even if they tent this place, it has seen much better days.  Another concern, the parking lot was totally jammed to accommodate guests.  Had someone wanted to get their car out of the lot in the later evening or if an emergency vehicle needed to get into the lot, it would have been a nightmare to move all the cars out of the way.  Would not stay at this Inn ever again.More</t>
   </si>
   <si>
+    <t>vviviann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r190678598-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -756,6 +846,9 @@
     <t>My family was traveling with a friend who was on a budget, and plus, our trip was pretty much an impromptu fishing trip, so we booked two rooms at this motel thinking that it would be decent like another Vagabond in LA which we frequently stay at. Nope, we were wrong. Not only did the motel have a strange smell, the rooms were less than clean and furniture were worn out. We ended up staying out until about 11pm, and when we got back to the motel, I just kept telling myself that for this low price, I shouldn't expect much. Glad I only had to stay here for one night. Also, if you don't come back early enough, you might have to park on the street if both the front and back parking lots are full.More</t>
   </si>
   <si>
+    <t>Babsan01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r180496797-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -774,6 +867,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>gelizabeth86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r175570282-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -789,6 +885,9 @@
     <t xml:space="preserve">I was truelly scared on booking this room due.to all the reviews and was ready to cancel and look for another one. The day came when we had to stay there and we were almost 2hra earlier than expected, at first he said it was to early but was busy trying to find us a room and he did. When we got to.the room i expected a mess dirty, dingy, gross. It was the total opposite the it was clean, no stains, nothing. I would deff. stay there again. It was prob the smoking rooms that were gross!   </t>
   </si>
   <si>
+    <t>Martin Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r174175668-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -807,6 +906,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>SW7180</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r168360711-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -825,6 +927,9 @@
     <t>Too many problems to list! Gross bathrooms, tub clogged so bad that we could not take more than one shower at 8:00 pm and the tub was still full in the morning. Staff was not friendly and not helpful. I called to have them fix the tub and was told the maintenance man was gone. The bathroom stunk like sewer. Based on other reviews the problem with the bathtubs is ongoing and there has been no attempt to fix them. Toilet handle was broken and toilet ran all night. Single pane windows rattled all night. Rooms have no extras at all that you would find in any hotel today such as hair drier, coffee pot, microwave (and there is NOT a microwave available for use in the lobby as the ‘guest information’ card indicates.) I would sleep on the beach before staying here again.More</t>
   </si>
   <si>
+    <t>Amanda P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r165821378-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -841,6 +946,9 @@
   </si>
   <si>
     <t>June 2013</t>
+  </si>
+  <si>
+    <t>Keith G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r163836792-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
@@ -869,6 +977,9 @@
 The safe...yes well. The one in the first room was locked in closed position, the one in the next room was open, but locked. We gave up. The staff was really unhelpful, actually belligerent when we wanted a safe that worked. Wifi worked once we realized Ipad and Iphone were capping the first letter and shouldn't have. Some of the doors need work as they don't close well or they slam. I didn't notice excessive...I hesitate to pan this hotel out-right. It wasn't really dirty but it is so in need of a remodel/refurb that it left an "almost dirty" lingering.The exterior looks good, and tho we didn't get to use it, the pool looked inviting. The interiors however appear to date back to the 70's. The drapes match the bedspreads (bedspreads? really?) but the clash with the carpet...which hasn't been steam-cleaned in a while.The sheets on the bed were clean but cheap (very low threadcount) and the blankets had holes in them (we took pictures). The bedsets didn't stay in place at all. (we had two beds thankfully, one to sleep in, the other for sex).The TV mostly worked, the safe (Oh! the safe). The bathroom was a disaster. The tiles doesn't match (from patches) the ceiling doesn't match, was patched but apparently never finished-sanded and the shelf over the toilet is so uneven, that nothing would stay on it. I'm buying a new toothbrush!The safe...yes well. The one in the first room was locked in closed position, the one in the next room was open, but locked. We gave up. The staff was really unhelpful, actually belligerent when we wanted a safe that worked. Wifi worked once we realized Ipad and Iphone were capping the first letter and shouldn't have. Some of the doors need work as they don't close well or they slam. I didn't notice excessive noise (but then the A/C was running all night)Starting to think this review should be a "Terrible". The did let us keep our bags there after check-out.More</t>
   </si>
   <si>
+    <t>AnnieandRebecca</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r162063270-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -884,6 +995,9 @@
     <t>If you what to wake up in the middle of the night by disturbing neighbors or like to sleep to house music this is the place for you! The service is really bad the neighborhood is very scary and the rooms are not fresh. Me and my friend has visit a lot of different motels around California the last couple of weeks and has always felt safe until this night. After going to bed around 11pm we heard something sounding like a murder in the room over us, never felt soo scared in our whole life. Stay away from this motel!!</t>
   </si>
   <si>
+    <t>LisaP142</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r147149170-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -902,6 +1016,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>BrisDragon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r146008597-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -923,6 +1040,9 @@
     <t>Yes I saw a mouse as well. Not scared of them, but it will make the place smell more than it already does. Loved the psychodelic carpet!!! 70's is back in fashion!!! Darn it, should have taken a photo. The continental breakfast was not refilled and we arrived an hour before the 10am finish. All that was left was a half eaten croissant and those soggy pastries wrapped in plastic. Yes we didn't pay a lot, but in comparison it was not up to scratch against the other similarly priced places. Check in and check out was slower than usual as well.There seemed to be plenty of parking and it was close to 1st Avenue which had lots of places to eat.More</t>
   </si>
   <si>
+    <t>windowashgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r143519067-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -941,6 +1061,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>islandgirl80</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r143248967-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -959,6 +1082,9 @@
     <t>We stayed here recently for the Long Beach Marathon. Great location near the start and finish lines. They allow pets for $10 which was a huge plus for us.  Elevator was convenient and rightfully placed.  The front desk staff were polite and responsive.  We checked out one night early without penalty.  Within walking distance of Roscoes Chicken and Waffles and a Vons.  Otherwise, not a good choice for a hotel. It's in dire need of remodeling, and there is mold and mysterious staining everywhere. There was hair in the bed. The toilet leaked all night. Burning smell when heater used.  The bolt lock for the adjoining room was unlocked and the condition of the door so bad that it could not even be locked! Thank goodness I had my guard dog!  It's in the ghetto and there were security/police on our floor at 1am on walkie talkies.  Poor water pressure and cheaply maintained plumbing. Our sink's knobs both said HOT, lol! No iron in the room. Smell of marijuana. Now the PARKING!! Not enough.  The owner told us to park at Chevron. Chevron owner said we had to come back in an hour and then sign a liability form. Forget that, we waited back at Vagabond for some sucker to leave which happened. In the morning, all cars are blocked in valet style. I feel bad for the staff here. They must deal with unhappy patrons every weekend.More</t>
   </si>
   <si>
+    <t>cqfp123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r142244624-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -974,6 +1100,9 @@
     <t>Stayed one night before running the Long Beach half-marathon. Well located within walking distance of the expo and the start line. Spacious room and bathroom. Outdated carpeting and decor, but can't expect too much for this price. Complimentary WiFi, continental breakfast and parking. There is a safe in the room. Very slow check-in process.</t>
   </si>
   <si>
+    <t>Melissa N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r136168599-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -989,6 +1118,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Topeka C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r133008855-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1007,6 +1139,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>jacobcschlueter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r129836993-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1028,6 +1163,9 @@
     <t>The first room we checked into was so moldy and gross that we actually went out to buy our own cleaning products to clean up ourselves. There were hairs and odd stains on the towels so that was pretty unpleasant. We brought this up to the manager working the desk with not very high expectations and were immediately switched to another room. The second room was a little run down but certainly clean and comfortable. Considering that "you get what you pay for," the second room was certainly above average. Breakfast was pretty questionable, but the proximity to the ocean and the Long Beach Convention Center was wonderful. No noise issues, light issues, anything like that. All in all, I wouldn't stay again but it is certainly not a bad hotel, and the staff is more helpful than you expect.More</t>
   </si>
   <si>
+    <t>jcdalman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r122717901-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1043,6 +1181,9 @@
     <t>this place offer continental breakfast food you can find in a vending machine. drapperies never been clean for decade. you can hear your neighboor above you when they walk during the day and night. one thing i like is they are pet friendly.  a must for pet lover.</t>
   </si>
   <si>
+    <t>Love2Hike</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r121674768-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1064,6 +1205,9 @@
     <t>We stayed here Friday &amp; Saturday Dec 9-11, 2011 for the local Motorcycle show.  Given a Friday &amp; Saturday night's stay totalled $129 inc taxes - people please!  It's a budget hotel, but you cannot beat the location and price.  We were able to walk to the convention center in a leisurely 15 mins...there are also free (yes free) buses available to downtown locations.I've often stayed at the Hyatt right on Ocean Blvd, but that price was some $211 for one night.  Vagabond inn smoking room actually smelt OK, the windows opened and the carpet was clean.  Sure the curtains needed replacing but, once again, it's $60 on a weekend 10 mins from the ocean front.  Breakfast was paltry (coffee was good and we only ate a banana) but hey - better than no coffee at all.Overall, it's BUDGET but you cannot beat the location.  Front desk staff very nice and helpful.More</t>
   </si>
   <si>
+    <t>LBRBNewcastle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r117943438-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1085,6 +1229,9 @@
     <t>Booked in a rush on labour day weekend when availability was awful. We decided in a budget hotel as we'd spent previous night in a luxury hotel in Vegas and needed to reign the finances in a bit! Really wish we hadn't, this was my worst hotel experience ever. Location was ok, didn't feel particularly safe, but this wasn't a big deal. Decor was dated beyond belief but again I can get past this. What we couldn't get past was the disgusting dirtiness if the room. The room we were in was obviously maintained on a day to day basis but it is so deep down dirty that it needs ripping out and starting again. The curtains were plain cream but looked patterned because if the mottled grease all over them, they were completely flight. The 2 armchairs were covered in stains, the bed smelled of sweat and the comforter had old blood stains on it. We did think about leaving but would have had to sleep in the car (which in hindsight would have been better)!! The place was so bad that my husband and I slept in full clothes so that our skin didn't touch the sheets (including hoodies pulled really tight round face)!! My husband couldn't bring himself to use the bathroom and I managed to show but couldn't touch the towels. The next morning we left at 7am to get somewhere clean to wash up and...Booked in a rush on labour day weekend when availability was awful. We decided in a budget hotel as we'd spent previous night in a luxury hotel in Vegas and needed to reign the finances in a bit! Really wish we hadn't, this was my worst hotel experience ever. Location was ok, didn't feel particularly safe, but this wasn't a big deal. Decor was dated beyond belief but again I can get past this. What we couldn't get past was the disgusting dirtiness if the room. The room we were in was obviously maintained on a day to day basis but it is so deep down dirty that it needs ripping out and starting again. The curtains were plain cream but looked patterned because if the mottled grease all over them, they were completely flight. The 2 armchairs were covered in stains, the bed smelled of sweat and the comforter had old blood stains on it. We did think about leaving but would have had to sleep in the car (which in hindsight would have been better)!! The place was so bad that my husband and I slept in full clothes so that our skin didn't touch the sheets (including hoodies pulled really tight round face)!! My husband couldn't bring himself to use the bathroom and I managed to show but couldn't touch the towels. The next morning we left at 7am to get somewhere clean to wash up and eat. We both honestly felt depressed and physically sick the next day. We're not generally budget travellers so not much to compare too, but I'm pretty sure that you can find a similar standard of hotel which doesn't look like the set of a horror movie! I read a review on another website which said that this looks like a place where bad things could happen - totally agree with that - don't stay here.More</t>
   </si>
   <si>
+    <t>deansmith333</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r115329208-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1106,6 +1253,9 @@
     <t>Checked into this hotel late at 11.30pm just as a place to sleep until morning. What is worth noting is that this hotel is cheap and tax included cost $90 for 3 people sharing two king size beds. Beds were comfortable and very large however there was a lot of noise from outside as the window faced a garage where people seem to race cars up and down the street all night and was also loud club music until I fell asleep at 1am. The bathroom was dated and a little dirty (rust around taps, frayed shower wire etc. everything just shwoing its age) however it came with lotions, a sealed new hydro 5 schick razor, shower gels and toothpaste at no extra charge so this was a bonus.Continental breakfast was included in the price however this consisted only of coffee with no milk, watery juices, small amount of croissants and a small amount of cakes (and this was at 7am!). Also they provide free wi-fi however getting this to load at a pace considered reasonable was almost impossible.For the cost of the place and the convenience of its central location its worth a visit if you plan on using it just to go straight to sleep in but maybe not if you plan on spending a long time sitting in the room.More</t>
   </si>
   <si>
+    <t>Johan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r114586756-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1121,6 +1271,9 @@
     <t>Do not that room 201. Across the road of this room ther is à club. THE music for this club you can hear it form room 201. The rooms have no refrigerated.</t>
   </si>
   <si>
+    <t>Greyjustice</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r108929164-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1139,6 +1292,9 @@
     <t>The hotel is situated close to the beach and harbour, ideal for visiting the area. Although the hotel room felt a bit dated, it was clean and functional. We had booked a non-smoking room the booking.com but when we checked in we were only offered a smoking room. Although it didn't affect our overall experience, it would have been better if we had go what we booked. The room also had a dripping bath tap which could become annoying if you were staying there for a longer time. The inclusive breakfast offering was satisfactory, pastries, juice and tea or coffee. it would have been nice to have fresh milk rather than powdered though. Overall good value.More</t>
   </si>
   <si>
+    <t>Jellystone63</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r96159034-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1157,6 +1313,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>EatVegJohn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r86754362-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1178,6 +1337,9 @@
     <t>I stayed one night at the Convention Center Vagabond inn due to a Convention in Long Beach.  I could handle this place for one night.  The motel 6 we stayed at on the previous night blew this place away (and that wasnt all that nice), but it was also 1/2 the price of this place.  Overall, the room was ok.  The bathroom is where this place really gets dinged.  It looks like they have not refurbished the bathroom since the 70s.  Stick on (cracking) vinyl floor tiles, and  mold growing in the bathroom, with old fixtures, and a shower that had "extra" controls that were no longer being used.  Stains in the tub..  IF the managment went thru and refurbed the bathrooms in every room, and cleaned the carpets more often, this would be a nice place.  The neighborhood is "rough" in the area behind the hotel, so I reccomend you park in the "front" of the hotel and not in the back.  In addition, the security at the hotel was a "farce" although outside doors should have required keys to enter, many were left open, or you could pull them open without a key.  I even believe I saw local people "cut" thru the hotel after a night of partying..More</t>
   </si>
   <si>
+    <t>realkoalat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r55570541-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1196,6 +1358,9 @@
     <t>February 2010</t>
   </si>
   <si>
+    <t>thepikeman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r24352665-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1215,6 +1380,9 @@
   </si>
   <si>
     <t>We stayed for 14 nights and enjoyed our stay. We saw no evidence of mice, disney or otherwise! The staff were very friendly and the manager even let us pick our own room with a refurbed bathroom and on the third floor which meant we had no one walking overhead. Mr Habib instantly offered us a 10th free nights stay even though we booked over the internet. We had a very noisy next door neighbour one night and on remarking on this to reception we were immediately given a discount. The chambermaids were all friendly and nothing was to much trouble for them. I think you get out of a hotel what you put in,be nice to staff and they will be nice to you! If you want the Savoy pay the price.More</t>
+  </si>
+  <si>
+    <t>licklemo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r23788806-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
@@ -1240,6 +1408,9 @@
     <t>We were looking to stay in Long Beach for just the night before the Long Beach Marathon, so we'd have an extra hour or so to sleep before heading off to the race in the morning.  The hotel was right next to the starting line, so the location for it was perfect.  
 When we checked in that eveing, around 9pm, we had trouble parking.  It is very limited and completely unmonitored, as many college aged kids were parking in the few spots they had and then walking to local bars/parties, so the car was left in the driveway, blocking other traffic.
 Upon checking in, there was another woman in the (tiny) lobby, a homeless man entered began harassing the two of us for money.  Both of us, being rather petite women, felt quite intimidated by this man being so upfront that he would actually walk into the hotel to ask for money.  We both waited for the front desk attendant to ask the man politely to leave, mentioning how uncomfortable we were.  The attendant said NOTHING, just acted as if he weren't there.  The man at the door became more and more aggressive as we told him we didn't have anything to give him (he wasn't looking for food if you know what I mean), and when we finally told the attendant that we wouldn't leave the lobby until this man was gone, the attendant seemed more frightened of the...We were looking to stay in Long Beach for just the night before the Long Beach Marathon, so we'd have an extra hour or so to sleep before heading off to the race in the morning.  The hotel was right next to the starting line, so the location for it was perfect.  When we checked in that eveing, around 9pm, we had trouble parking.  It is very limited and completely unmonitored, as many college aged kids were parking in the few spots they had and then walking to local bars/parties, so the car was left in the driveway, blocking other traffic.Upon checking in, there was another woman in the (tiny) lobby, a homeless man entered began harassing the two of us for money.  Both of us, being rather petite women, felt quite intimidated by this man being so upfront that he would actually walk into the hotel to ask for money.  We both waited for the front desk attendant to ask the man politely to leave, mentioning how uncomfortable we were.  The attendant said NOTHING, just acted as if he weren't there.  The man at the door became more and more aggressive as we told him we didn't have anything to give him (he wasn't looking for food if you know what I mean), and when we finally told the attendant that we wouldn't leave the lobby until this man was gone, the attendant seemed more frightened of the man than the two of us, and it took him a few minutes to finally convince the homeless man that if he didn't leave, he would call security.So, after being physically intimidated in the lobby, I told the gentleman at the front desk that there was no available parking, and he told me we could park across the street at the gas station, that they had some sort of deal worked out.  We drove to the gas station and the attendant there had no idea what we were talking about and if we parked there, we would be towed (even though we presented a parking pass from the hotel).  In the mean time, our friend from the lobby had wandered over to the gas station, meeting up with some of his buddies, and hovering around the vehicles that were parked there...Long Beach at night is not a friendly place.  Needless to say, we drove home right and woke up the extra hour early in the morning to drive out for the race.More</t>
+  </si>
+  <si>
+    <t>lawyergirl07</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r20652721-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
@@ -1277,6 +1448,9 @@
 A few days into my stay, I noticed that double the amount of the nightly stay was being deducted from my account every day.  I confronted the manager, “Habib” and he said that they charge a deposit, which didn’t make any...I am no stranger to hotels as I travel often for work.  However, my stay at the Vagabond Inn Long Beach was different.  I was having construction work done at home and was displaced and for several weeks, becoming very familiar with the local hotels. My first hotel stay was for about 12 days at the Vagabond Inn.  My stays were coming out of pocket, so the Vagabond was desirable to me based on price along with the fact that it is located about 2 blocks from my office in Downtown Long Beach.  I checked in on my lunch hour.  The woman at the desk, Lety, was very nice and very accommodating.  She set me up in a room on the second floor with a queen size bed and lots of space for my yoga mat.  One of my friends came back with me one night and commented that the room was big enough to land a helicopter in it.  Of course, being totally, I was caught flying around my remote control helicopter by a housekeeping lady one day.  Where she seemed puzzled at first, she ended up laughing.  The room was decent, of course, it was no Marriott.  A few days into my stay, I noticed that double the amount of the nightly stay was being deducted from my account every day.  I confronted the manager, “Habib” and he said that they charge a deposit, which didn’t make any sense to me as with larger hotels there is typically one charge made as a deposit.  I opted to start paying cash.  Around my 6th night, I noticed a small sign on the counter in the lobby that stated “10th Night Free.”  I asked the manager about it and he was rather harsh in saying that I did not qualify because I booked my hotel stays online.  Apparently, he didn’t like that I was high maintenance, asking for extra pillows and everything(ha ha). The next day I asked my little friend Lety, and she hooked me up with a card to get my 10th night free.  Booyah, Mr. Habib!  I was set to stay a total of 18 days, however after my brief run in with a large mouse that amazingly enough slid right under the door, I was done!  The only mice I want to see wear clothes, white gloves and I have to pay 50 bucks to get hugs and picture from them (I love you Mickey!)  It was about 11pm when Mickey’s evil step-brother invaded my room, and I ran out of there like the place was on fire.  The guy at the front desk told me that they just had the bottom floor fumigated because they are trying to keep the vending machines safe (er…what about your guests?!)I checked out, not before being declined a refund for that night (because I had used the shower…lol) and made my way over to the brand new Best Western in the arts district of Long Beach where I had a lovely boutique experience (see review).More</t>
   </si>
   <si>
+    <t>Rochele34</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r16771795-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1298,6 +1472,9 @@
     <t>I had to ask for another room because the door wouldn't lock. Clerk told me to mess with it a little bit and it should work! I asked for another room. Rooms are dirty, smelly, and price was ridiculous! I stayed at the Westin for less than I paid at this hotel! The location is in a bad part of town with a lot of "undiserables" hanging around at all hours. Do yourself a favor and fork out an extra fifty bucks to stay at the Best Western down the street!More</t>
   </si>
   <si>
+    <t>shakaobear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r13952728-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1319,6 +1496,9 @@
     <t>I stay there every year to attend a convention. The place is maintained passably well. I left my socks on to protect feet from "gunk"..they were filthy by morning. There is no extra blanket &amp; clerk reluctant to provide one &lt;&lt;"just turn the heater on overnight&gt;&gt;. "Free" wireless was hard to log on to..then the nearby Travelodge kept over riding our installation. Constant H20 drip in shower. Very uninspiring "continental breakfast" content and area where it's served. They pre-charge you for available in room safe which you need to get reversed  on checking out. No free local paper &lt;not everyone needs USA today&gt;.More</t>
   </si>
   <si>
+    <t>dperales</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r8219267-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1340,6 +1520,9 @@
     <t>We booked the Vagabond Long Beach after reading all of the reviews most of them negative.  We were pleasantly surprised.  We booked it because of the proximity to the Pro Beach Volleyball tournament we were attending.  We were able to walk to the venue and not have to pay for parking at the event.The rooms were large and adequate.  It is definitely an older motel in need of remodeling, but it was serviceable and fit our needs just fine.The continental breakfast was store bought pastries, croissants, coffee, tea, juice, bananas and apples.Our reservation was done online and the price was great.  The desk clerks were very helpful with driving directions the two times we needed help and they allowed us to leave our car in the parking lot on our final day after we had checked out in order to walk to our event.Overall, it was nothing outstanding, but it was clean and comfortable.More</t>
   </si>
   <si>
+    <t>Bethorla</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r1503099-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1358,6 +1541,9 @@
     <t>I have to admit that the room was fine...although I did not get the Queen size bed they advertised. And, I probably won't stay there again....they pulled a bait and switch on us. I confirmed my arrival and the price online and after staying the one night was informed that there was a mistake on the price and they were not going to honor the confirmed price. It was only a $10 difference but it's the principle. When I complained upon check-out that I would be reporting them to the BBB and their corporate office, they reduced the price by $5. I still intend to report them because they used unfair practices. If I had been informed of the price from the beginning, I would have at least had a choice - as it was, I was committed to staying. I believe once you have confirmed a price it should be honored, no and's or but's about it. Don't offer a 10% Manager special if it's a lie. Let the buyer beware!More</t>
   </si>
   <si>
+    <t>berlinslum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r1155488-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -1374,6 +1560,9 @@
   </si>
   <si>
     <t>I had stayed at the Reno Vagabond Inn and found it quite satisfactory. Unfortunately the Vagabond in Long Beach has a run-down feel to it. The location is OK, it's a short walk to the Passport Shuttle which provides a free ride to downtown and runs frequently. The rooms are large. My bed was fine. There is a high level of street &amp; neighborhood noise which is especially unpleasant late at night. The swimming pool is miniscule and I never saw anyone using it in the five days I stayed there. There are a few dismal pastries put out as a form of breakfast, and the coffee is always very weak. This last shows the mentality of the operation as it could not cost them more than another $1-2 per day to make full strength coffee.Next time I'll try Travelodge which is in the same neighborhood but looks considerably nicer.More</t>
+  </si>
+  <si>
+    <t>goingtocapemay</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d77592-r1107348-Vagabond_Inn_Convention_Center_Long_Beach-Long_Beach_California.html</t>
@@ -1893,34 +2082,38 @@
       <c r="A2" t="n">
         <v>5725</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
@@ -1939,50 +2132,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5725</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1996,50 +2193,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5725</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2053,50 +2254,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5725</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2110,50 +2315,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5725</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2171,50 +2380,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5725</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2228,50 +2441,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5725</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2285,50 +2502,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5725</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2342,50 +2563,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5725</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2403,50 +2628,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5725</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2458,56 +2687,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5725</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2525,56 +2758,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="X12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5725</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2586,56 +2823,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="X13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5725</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2649,50 +2890,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5725</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2712,50 +2957,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5725</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
@@ -2775,50 +3024,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5725</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2832,50 +3085,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5725</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2889,50 +3146,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5725</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2952,50 +3213,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5725</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3009,50 +3274,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5725</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3072,50 +3341,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5725</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="J22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="O22" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3129,50 +3402,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5725</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>203</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
@@ -3192,50 +3469,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5725</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3255,50 +3536,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5725</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>216</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="J25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="K25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="O25" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3318,50 +3603,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5725</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>224</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="J26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="O26" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3379,50 +3668,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5725</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>231</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="O27" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3436,41 +3729,45 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5725</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>238</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
@@ -3499,50 +3796,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5725</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>245</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="J29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="K29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3556,50 +3857,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5725</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>254</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="J30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="K30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3621,50 +3926,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5725</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>262</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="J31" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="K31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="L31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="O31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -3688,50 +3997,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5725</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>270</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="J32" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="K32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="O32" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3755,41 +4068,45 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5725</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>277</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="J33" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
@@ -3818,50 +4135,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5725</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>283</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
+        <v>285</v>
+      </c>
+      <c r="J34" t="s">
+        <v>286</v>
+      </c>
+      <c r="K34" t="s">
+        <v>287</v>
+      </c>
+      <c r="L34" t="s">
+        <v>288</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>289</v>
+      </c>
+      <c r="O34" t="s">
         <v>252</v>
-      </c>
-      <c r="J34" t="s">
-        <v>253</v>
-      </c>
-      <c r="K34" t="s">
-        <v>254</v>
-      </c>
-      <c r="L34" t="s">
-        <v>255</v>
-      </c>
-      <c r="M34" t="n">
-        <v>3</v>
-      </c>
-      <c r="N34" t="s">
-        <v>256</v>
-      </c>
-      <c r="O34" t="s">
-        <v>224</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3885,50 +4206,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5725</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>290</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="J35" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="K35" t="s">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="L35" t="s">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="O35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -3952,50 +4277,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5725</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>297</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="J36" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="K36" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="L36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P36" t="n">
         <v>2</v>
@@ -4019,50 +4348,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5725</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>304</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="J37" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="K37" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="O37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -4086,41 +4419,45 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5725</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>311</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="J38" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="K38" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -4149,50 +4486,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5725</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>317</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="J39" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="K39" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="L39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="O39" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4216,50 +4557,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5725</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>324</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="J40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="K40" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="L40" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="O40" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4283,50 +4628,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>5725</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>332</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="J41" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="K41" t="s">
-        <v>296</v>
+        <v>336</v>
       </c>
       <c r="L41" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="O41" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4350,50 +4699,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>297</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>5725</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>339</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="J42" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="K42" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="L42" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="O42" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -4417,50 +4770,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>5725</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>346</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="J43" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="K43" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="L43" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>298</v>
+        <v>338</v>
       </c>
       <c r="O43" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4484,50 +4841,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>5725</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>352</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="J44" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="K44" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="L44" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="O44" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -4551,50 +4912,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>5725</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>358</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="J45" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="K45" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="L45" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="O45" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -4616,50 +4981,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>5725</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>365</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>322</v>
+        <v>367</v>
       </c>
       <c r="J46" t="s">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="K46" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="L46" t="s">
-        <v>325</v>
+        <v>370</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>326</v>
+        <v>371</v>
       </c>
       <c r="O46" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -4683,41 +5052,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>5725</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>373</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="J47" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="K47" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="L47" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
@@ -4746,50 +5119,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>5725</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>379</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>333</v>
+        <v>380</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>334</v>
+        <v>381</v>
       </c>
       <c r="J48" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="K48" t="s">
-        <v>336</v>
+        <v>383</v>
       </c>
       <c r="L48" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>338</v>
+        <v>385</v>
       </c>
       <c r="O48" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4813,50 +5190,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>339</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>5725</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>387</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="J49" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="K49" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="L49" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="O49" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -4870,50 +5251,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>5725</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>395</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>347</v>
+        <v>396</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>348</v>
+        <v>397</v>
       </c>
       <c r="J50" t="s">
-        <v>349</v>
+        <v>398</v>
       </c>
       <c r="K50" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="L50" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="O50" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -4933,41 +5318,45 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>353</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>5725</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>403</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="J51" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="K51" t="s">
-        <v>357</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
@@ -4996,41 +5385,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>5725</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>409</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="J52" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="K52" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="L52" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
@@ -5059,50 +5452,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>5725</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>416</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>366</v>
+        <v>418</v>
       </c>
       <c r="J53" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="K53" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="L53" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="O53" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P53" t="n">
         <v>2</v>
@@ -5126,50 +5523,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>5725</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>423</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="J54" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="K54" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="L54" t="s">
-        <v>375</v>
+        <v>428</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="O54" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
@@ -5193,50 +5594,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>5725</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>431</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="J55" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="K55" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="L55" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="O55" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -5260,50 +5665,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>5725</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>438</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="J56" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="K56" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="L56" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="O56" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5327,50 +5736,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>5725</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>446</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="J57" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="K57" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="L57" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="O57" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5392,50 +5805,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>5725</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>454</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="J58" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="K58" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="L58" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="M58" t="n">
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="O58" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -5457,56 +5874,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="X58" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="Y58" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>5725</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>464</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>407</v>
+        <v>465</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
       <c r="J59" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="K59" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="L59" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="M59" t="n">
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="O59" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P59" t="n">
         <v>2</v>
@@ -5528,56 +5949,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="X59" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="Y59" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>5725</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>472</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="J60" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="K60" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="L60" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="O60" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -5599,56 +6024,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="X60" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="Y60" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>5725</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>480</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="J61" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="K61" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="L61" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="O61" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -5670,47 +6099,51 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="X61" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="Y61" t="s">
-        <v>427</v>
+        <v>487</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>5725</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>488</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="J62" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="K62" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="L62" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
@@ -5737,41 +6170,45 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>433</v>
+        <v>494</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>5725</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>495</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="J63" t="s">
-        <v>436</v>
+        <v>498</v>
       </c>
       <c r="K63" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
       <c r="L63" t="s">
-        <v>438</v>
+        <v>500</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
@@ -5798,41 +6235,45 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>439</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>5725</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>502</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="J64" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="K64" t="s">
-        <v>443</v>
+        <v>506</v>
       </c>
       <c r="L64" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
@@ -5851,7 +6292,7 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
